--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>238500</v>
+      </c>
+      <c r="E8" s="3">
         <v>259000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>252600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>238500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>249300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>247400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>241600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>229300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>233600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>234000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>225400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>211000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>228100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>227800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E9" s="3">
         <v>130900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>125600</v>
       </c>
-      <c r="F9" s="3">
-        <v>101300</v>
-      </c>
       <c r="G9" s="3">
+        <v>122500</v>
+      </c>
+      <c r="H9" s="3">
         <v>138100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>136200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>129700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>124900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>129200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>122700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>120800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>119300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>146000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>126800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E10" s="3">
         <v>128100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>127000</v>
       </c>
-      <c r="F10" s="3">
-        <v>137200</v>
-      </c>
       <c r="G10" s="3">
-        <v>111200</v>
+        <v>116000</v>
       </c>
       <c r="H10" s="3">
         <v>111200</v>
       </c>
       <c r="I10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="J10" s="3">
         <v>111900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>104400</v>
       </c>
       <c r="K10" s="3">
         <v>104400</v>
       </c>
       <c r="L10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="M10" s="3">
         <v>111300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>104600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>91700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>82100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>101000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E14" s="3">
         <v>10300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3">
-        <v>72900</v>
-      </c>
       <c r="G14" s="3">
+        <v>51700</v>
+      </c>
+      <c r="H14" s="3">
         <v>6400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>31700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>57200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E17" s="3">
         <v>218100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>202800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>251800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>225400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>219000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>215500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>224100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>219300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>233000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>201100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>186300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>285600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>206600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E18" s="3">
         <v>40900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>49800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-57500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1400</v>
       </c>
       <c r="N20" s="3">
         <v>-1400</v>
       </c>
       <c r="O20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E21" s="3">
         <v>64900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>72100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>53400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>45100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>45000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-37000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>41200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E23" s="3">
         <v>37800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-59200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
         <v>7900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-9200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-21300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E26" s="3">
         <v>29900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>20100</v>
       </c>
       <c r="N26" s="3">
         <v>20100</v>
       </c>
       <c r="O26" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-51100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E27" s="3">
         <v>29900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>20100</v>
       </c>
       <c r="N27" s="3">
         <v>20100</v>
       </c>
       <c r="O27" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-51100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1400</v>
       </c>
       <c r="N32" s="3">
         <v>1400</v>
       </c>
       <c r="O32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E33" s="3">
         <v>29900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>20100</v>
       </c>
       <c r="N33" s="3">
         <v>20100</v>
       </c>
       <c r="O33" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-51100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E35" s="3">
         <v>29900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>20100</v>
       </c>
       <c r="N35" s="3">
         <v>20100</v>
       </c>
       <c r="O35" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-51100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>137300</v>
+      </c>
+      <c r="E41" s="3">
         <v>126400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>190200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>169400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>154900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>199800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>192100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>180200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>251600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>203600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>171700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>139600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>129600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>165200</v>
+      </c>
+      <c r="E43" s="3">
         <v>170800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>176500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>163300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>185000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>167600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>161600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>151300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>151200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>146700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>143700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>151500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>152700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>150600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>270300</v>
+      </c>
+      <c r="E44" s="3">
         <v>254200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>244500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>222000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>194300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>168900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>163600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>175300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>160800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>158800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>168600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>173900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>176900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>188500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E45" s="3">
         <v>31200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>37500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>603600</v>
+      </c>
+      <c r="E46" s="3">
         <v>582600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>567800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>615300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>576100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>515900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>552800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>551000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>521200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>589700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>553400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>528100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>510000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>496600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>305600</v>
+      </c>
+      <c r="E48" s="3">
         <v>322300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>264200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>276700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>344000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>351100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>344600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>315900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>332200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>330000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>320200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>322000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>323900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>336000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>343800</v>
+      </c>
+      <c r="E49" s="3">
         <v>318400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>324600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>331500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>338500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>345400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>352300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>359600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>368000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>375000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>380500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>384400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>388400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>452700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E52" s="3">
         <v>14500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>17000</v>
       </c>
       <c r="N52" s="3">
         <v>17000</v>
       </c>
       <c r="O52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P52" s="3">
         <v>16400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1267100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1237700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1190500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1259600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1274800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1227600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1265700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1241200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1237300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1311700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1271200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1251400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1238700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1306400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E57" s="3">
         <v>52300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>41500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E58" s="3">
         <v>62000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>56900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>117500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>194300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>151500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>108600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>65900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>61000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>66300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E59" s="3">
         <v>142400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>125700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>115300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>144700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>131500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>118600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>111600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>131200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>104600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>107200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>101100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E60" s="3">
         <v>256700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>240100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>293700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>235800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>211300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>189200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>194000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>384700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>324200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>255000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>205500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>211200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>216200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>305500</v>
+      </c>
+      <c r="E61" s="3">
         <v>309700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>314000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>318100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>322500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>326600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>331000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>330800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>59400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>118700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>178000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>237200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>253600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>270000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E62" s="3">
         <v>96700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>56800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>48700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>42300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>36900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>680000</v>
+      </c>
+      <c r="E66" s="3">
         <v>663200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>606800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>668600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>606900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>584500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>564400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>567100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>484900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>488900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>469900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>478600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>499100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>535500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E72" s="3">
         <v>69900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>85600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>99400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>161400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>140600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>194400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>189900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>266900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>323600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>330200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>310100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>289900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>341100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>587100</v>
+      </c>
+      <c r="E76" s="3">
         <v>574600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>583800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>591000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>667900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>643100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>701300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>674100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>752400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>822800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>801300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>772800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>739600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>770900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E81" s="3">
         <v>29900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>20100</v>
       </c>
       <c r="N81" s="3">
         <v>20100</v>
       </c>
       <c r="O81" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-51100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E83" s="3">
         <v>27100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E89" s="3">
         <v>79300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>58200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>57400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>65400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>58900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>34600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>55200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-48500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-48100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-46200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-112500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-76200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-112700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E102" s="3">
         <v>14400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-78200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-71400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>48000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E8" s="3">
         <v>238500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>259000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>252600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>238500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>249300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>247400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>241600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>229300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>233600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>234000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>225400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>211000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>228100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>227800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E9" s="3">
         <v>124900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>130900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>125600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>122500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>138100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>136200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>129700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>124900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>129200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>122700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>120800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>119300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>146000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>126800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E10" s="3">
         <v>113600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>128100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>127000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>116000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>111200</v>
       </c>
       <c r="I10" s="3">
         <v>111200</v>
       </c>
       <c r="J10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K10" s="3">
         <v>111900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>104400</v>
       </c>
       <c r="L10" s="3">
         <v>104400</v>
       </c>
       <c r="M10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="N10" s="3">
         <v>111300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>104600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>91700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>82100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>101000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E12" s="3">
         <v>9000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>51700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>31700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-5500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>57200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E17" s="3">
         <v>212500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>218100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>202800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>251800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>225400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>219000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>215500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>224100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>219300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>233000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>201100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>186300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>285600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>206600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E18" s="3">
         <v>26000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>40900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-57500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1400</v>
       </c>
       <c r="O20" s="3">
         <v>-1400</v>
       </c>
       <c r="P20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E21" s="3">
         <v>50700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>64900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>72100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>51600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>53400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>48300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>45100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>45000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>41200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="3">
         <v>22000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>25500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-59200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-9200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-21300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E26" s="3">
         <v>17600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>20100</v>
       </c>
       <c r="O26" s="3">
         <v>20100</v>
       </c>
       <c r="P26" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E27" s="3">
         <v>17600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>20100</v>
       </c>
       <c r="O27" s="3">
         <v>20100</v>
       </c>
       <c r="P27" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1724,14 +1785,14 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>4100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1400</v>
       </c>
       <c r="O32" s="3">
         <v>1400</v>
       </c>
       <c r="P32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E33" s="3">
         <v>17600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>20100</v>
       </c>
       <c r="O33" s="3">
         <v>20100</v>
       </c>
       <c r="P33" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E35" s="3">
         <v>17600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>20100</v>
       </c>
       <c r="O35" s="3">
         <v>20100</v>
       </c>
       <c r="P35" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>275700</v>
+      </c>
+      <c r="E41" s="3">
         <v>137300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>190200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>169400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>154900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>199800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>192100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>180200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>251600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>203600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>171700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>139600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>129600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E43" s="3">
         <v>165200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>170800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>176500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>163300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>185000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>167600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>161600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>151300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>151200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>146700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>143700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>151500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>152700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>150600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>294500</v>
+      </c>
+      <c r="E44" s="3">
         <v>270300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>254200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>244500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>222000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>194300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>168900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>163600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>175300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>160800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>158800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>168600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>173900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>176900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>188500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E45" s="3">
         <v>30800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>37500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>30900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>759400</v>
+      </c>
+      <c r="E46" s="3">
         <v>603600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>582600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>567800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>615300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>576100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>515900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>552800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>551000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>521200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>589700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>553400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>528100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>510000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>496600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E48" s="3">
         <v>305600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>322300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>264200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>276700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>344000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>351100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>344600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>315900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>332200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>330000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>320200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>322000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>323900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>336000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>354800</v>
+      </c>
+      <c r="E49" s="3">
         <v>343800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>318400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>324600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>331500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>338500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>345400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>352300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>359600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>368000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>375000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>380500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>384400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>388400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>452700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E52" s="3">
         <v>14100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>17000</v>
       </c>
       <c r="O52" s="3">
         <v>17000</v>
       </c>
       <c r="P52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>16400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1433200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1267100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1237700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1190500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1259600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1274800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1227600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1265700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1241200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1237300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1311700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1271200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1251400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1238700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1306400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E57" s="3">
         <v>50700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>62600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>231400</v>
+      </c>
+      <c r="E58" s="3">
         <v>77000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>62000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>56900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>117500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>194300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>151500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>108600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>65900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>61000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>66300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E59" s="3">
         <v>147100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>142400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>125700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>115300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>144700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>131500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>118600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>111600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>135200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>131200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>104600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>107200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>101100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>407800</v>
+      </c>
+      <c r="E60" s="3">
         <v>274800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>256700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>240100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>293700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>235800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>211300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>189200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>194000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>384700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>324200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>255000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>205500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>211200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>216200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>296900</v>
+      </c>
+      <c r="E61" s="3">
         <v>305500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>309700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>314000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>318100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>322500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>326600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>331000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>330800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>59400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>118700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>178000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>237200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>253600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>270000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E62" s="3">
         <v>99700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>96700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>56800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>48700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>824600</v>
+      </c>
+      <c r="E66" s="3">
         <v>680000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>663200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>606800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>668600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>606900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>584500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>564400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>567100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>484900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>488900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>469900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>478600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>499100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>535500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E72" s="3">
         <v>78500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>69900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>85600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>99400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>161400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>140600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>194400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>189900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>266900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>323600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>330200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>310100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>289900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>341100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>608600</v>
+      </c>
+      <c r="E76" s="3">
         <v>587100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>574600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>583800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>591000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>667900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>643100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>701300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>674100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>752400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>822800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>801300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>772800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>739600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>770900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E81" s="3">
         <v>17600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>20100</v>
       </c>
       <c r="O81" s="3">
         <v>20100</v>
       </c>
       <c r="P81" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-51100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E83" s="3">
         <v>28800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E89" s="3">
         <v>46400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>79300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>58200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>65400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>58900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>55200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-48100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E100" s="3">
         <v>11400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-46200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-112500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>16100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-76200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-112700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-45400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E102" s="3">
         <v>10900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-78200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-71400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E8" s="3">
         <v>195600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>238500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>259000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>252600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>238500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>249300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>247400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>241600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>229300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>233600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>234000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>225400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>211000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>228100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>227800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>105500</v>
+        <v>104000</v>
       </c>
       <c r="E9" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F9" s="3">
         <v>124900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>130900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>125600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>122500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>138100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>136200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>129700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>124900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>129200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>122700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>120800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>119300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>146000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>126800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>90100</v>
+        <v>105500</v>
       </c>
       <c r="E10" s="3">
+        <v>90600</v>
+      </c>
+      <c r="F10" s="3">
         <v>113600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>128100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>127000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>116000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>111200</v>
       </c>
       <c r="J10" s="3">
         <v>111200</v>
       </c>
       <c r="K10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="L10" s="3">
         <v>111900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>104400</v>
       </c>
       <c r="M10" s="3">
         <v>104400</v>
       </c>
       <c r="N10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="O10" s="3">
         <v>111300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>104600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>91700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>82100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>101000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7800</v>
+        <v>7000</v>
       </c>
       <c r="E12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6100</v>
+        <v>-31600</v>
       </c>
       <c r="E14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>51700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>31700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>57200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E17" s="3">
         <v>183900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>212500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>218100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>202800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>251800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>225400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>219000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>215500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>224100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>219300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>233000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>201100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>186300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>285600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>206600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E18" s="3">
         <v>11700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>40900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>49800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-13300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>23900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-57500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,105 +1322,111 @@
         <v>-3800</v>
       </c>
       <c r="E20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1400</v>
       </c>
       <c r="P20" s="3">
         <v>-1400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E21" s="3">
         <v>28700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>50700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>64900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>72100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>53400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>45100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>45000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-37000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>41200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-59200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-21300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-8000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>20100</v>
       </c>
       <c r="P26" s="3">
         <v>20100</v>
       </c>
       <c r="Q26" s="3">
+        <v>20100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-51100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E27" s="3">
         <v>10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>20100</v>
       </c>
       <c r="P27" s="3">
         <v>20100</v>
       </c>
       <c r="Q27" s="3">
+        <v>20100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-51100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,14 +1849,14 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +1994,111 @@
         <v>3800</v>
       </c>
       <c r="E32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F32" s="3">
         <v>4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1400</v>
       </c>
       <c r="P32" s="3">
         <v>1400</v>
       </c>
       <c r="Q32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E33" s="3">
         <v>10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>20100</v>
       </c>
       <c r="P33" s="3">
         <v>20100</v>
       </c>
       <c r="Q33" s="3">
+        <v>20100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-51100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E35" s="3">
         <v>10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>20100</v>
       </c>
       <c r="P35" s="3">
         <v>20100</v>
       </c>
       <c r="Q35" s="3">
+        <v>20100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-51100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>279200</v>
+      </c>
+      <c r="E41" s="3">
         <v>275700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>137300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>190200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>169400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>154900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>199800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>192100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>180200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>251600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>203600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>171700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>139600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>129600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E43" s="3">
         <v>141100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>165200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>170800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>176500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>163300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>185000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>167600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>161600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>151300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>151200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>146700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>143700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>151500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>152700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>150600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>305200</v>
+      </c>
+      <c r="E44" s="3">
         <v>294500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>270300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>254200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>244500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>222000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>194300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>168900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>163600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>175300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>160800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>158800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>168600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>173900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>176900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>188500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E45" s="3">
         <v>48100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>37500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>760300</v>
+      </c>
+      <c r="E46" s="3">
         <v>759400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>603600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>582600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>567800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>615300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>576100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>515900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>552800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>551000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>521200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>589700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>553400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>528100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>510000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>496600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>240400</v>
+      </c>
+      <c r="E48" s="3">
         <v>243000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>305600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>322300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>264200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>276700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>344000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>351100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>344600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>315900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>332200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>330000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>320200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>322000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>323900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>336000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>341800</v>
+      </c>
+      <c r="E49" s="3">
         <v>354800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>343800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>318400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>324600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>331500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>338500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>345400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>352300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>359600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>368000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>375000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>380500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>384400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>388400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>452700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E52" s="3">
         <v>76000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>17000</v>
       </c>
       <c r="P52" s="3">
         <v>17000</v>
       </c>
       <c r="Q52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="R52" s="3">
         <v>16400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1418200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1433200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1267100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1237700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1190500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1259600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1274800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1227600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1265700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1241200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1237300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1311700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1271200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1251400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1238700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1306400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E57" s="3">
         <v>48500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>60800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>62600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E58" s="3">
         <v>231400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>77000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>62000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>56900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>117500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>194300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>151500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>108600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>65900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>61000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>66300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E59" s="3">
         <v>128000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>147100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>142400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>125700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>115300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>144700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>131500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>118600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>111600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>135200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>131200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>104600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>107200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>101100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>338600</v>
+      </c>
+      <c r="E60" s="3">
         <v>407800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>274800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>256700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>240100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>293700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>235800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>211300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>189200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>194000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>384700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>324200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>255000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>205500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>211200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>216200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E61" s="3">
         <v>296900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>305500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>309700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>314000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>318100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>322500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>326600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>331000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>330800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>59400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>118700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>178000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>237200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>253600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>270000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E62" s="3">
         <v>119900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>99700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>96700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>52700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>56800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>750300</v>
+      </c>
+      <c r="E66" s="3">
         <v>824600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>680000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>663200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>606800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>668600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>606900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>584500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>564400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>567100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>484900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>488900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>469900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>478600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>499100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>535500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E72" s="3">
         <v>89000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>78500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>69900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>85600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>99400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>161400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>140600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>194400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>189900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>266900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>323600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>330200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>310100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>289900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>341100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>667900</v>
+      </c>
+      <c r="E76" s="3">
         <v>608600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>587100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>574600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>583800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>591000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>667900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>643100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>701300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>674100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>752400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>822800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>801300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>772800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>739600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>770900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E81" s="3">
         <v>10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>20100</v>
       </c>
       <c r="P81" s="3">
         <v>20100</v>
       </c>
       <c r="Q81" s="3">
+        <v>20100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-51100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E83" s="3">
         <v>20700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>22200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E89" s="3">
         <v>11800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>79300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>58200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>65400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>58900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>34600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>55200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-48100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E100" s="3">
         <v>149000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-46200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-112500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-76200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>18700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-112700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,101 +5372,107 @@
         <v>1500</v>
       </c>
       <c r="E101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>138400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-78200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-71400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>48000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>240400</v>
+      </c>
+      <c r="E8" s="3">
         <v>209500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>195600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>238500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>259000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>252600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>238500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>249300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>247400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>241600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>233600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>234000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>225400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>211000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>228100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>227800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>120200</v>
+      </c>
+      <c r="E9" s="3">
         <v>104000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>105000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>124900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>130900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>125600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>122500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>138100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>129700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>124900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>129200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>122700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>120800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>119300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>146000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>126800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>120200</v>
+      </c>
+      <c r="E10" s="3">
         <v>105500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>90600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>113600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>128100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>127000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>116000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>111200</v>
       </c>
       <c r="K10" s="3">
         <v>111200</v>
       </c>
       <c r="L10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="M10" s="3">
         <v>111900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>104400</v>
       </c>
       <c r="N10" s="3">
         <v>104400</v>
       </c>
       <c r="O10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="P10" s="3">
         <v>111300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>104600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>91700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>82100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>101000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E12" s="3">
         <v>7000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-31600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>51700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>24500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-5500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>57200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>199900</v>
+      </c>
+      <c r="E17" s="3">
         <v>150700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>183900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>212500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>218100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>202800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>251800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>225400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>219000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>215500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>224100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>219300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>233000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>201100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>186300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>285600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>206600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E18" s="3">
         <v>58800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>40900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>49800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>23900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-57500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3800</v>
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
         <v>-3800</v>
       </c>
       <c r="F20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q20" s="3">
         <v>-1400</v>
       </c>
       <c r="R20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E21" s="3">
         <v>75800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>50700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>64900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>72100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>53400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>48300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>45100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>45000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-37000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>41200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E23" s="3">
         <v>55000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-59200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E24" s="3">
         <v>6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-21300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E26" s="3">
         <v>48100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>20100</v>
       </c>
       <c r="Q26" s="3">
         <v>20100</v>
       </c>
       <c r="R26" s="3">
+        <v>20100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-51100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E27" s="3">
         <v>48100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>20100</v>
       </c>
       <c r="Q27" s="3">
         <v>20100</v>
       </c>
       <c r="R27" s="3">
+        <v>20100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-51100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,14 +1912,14 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3800</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
         <v>3800</v>
       </c>
       <c r="F32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G32" s="3">
         <v>4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1400</v>
       </c>
       <c r="Q32" s="3">
         <v>1400</v>
       </c>
       <c r="R32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E33" s="3">
         <v>48100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>20100</v>
       </c>
       <c r="Q33" s="3">
         <v>20100</v>
       </c>
       <c r="R33" s="3">
+        <v>20100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-51100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E35" s="3">
         <v>48100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>20100</v>
       </c>
       <c r="Q35" s="3">
         <v>20100</v>
       </c>
       <c r="R35" s="3">
+        <v>20100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-51100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E41" s="3">
         <v>279200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>275700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>137300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>112000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>190200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>169400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>154900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>199800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>192100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>180200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>251600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>203600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>171700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>139600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>129600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,232 +2515,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>146900</v>
+      </c>
+      <c r="E43" s="3">
         <v>141500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>141100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>165200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>170800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>176500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>163300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>185000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>167600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>161600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>151300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>151200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>146700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>143700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>151500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>152700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>150600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>299700</v>
+      </c>
+      <c r="E44" s="3">
         <v>305200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>294500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>270300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>254200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>244500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>222000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>194300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>168900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>163600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>175300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>160800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>158800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>168600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>173900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>176900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>188500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E45" s="3">
         <v>34400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>37500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>40900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>668300</v>
+      </c>
+      <c r="E46" s="3">
         <v>760300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>759400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>603600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>582600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>567800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>615300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>576100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>515900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>552800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>551000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>521200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>589700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>553400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>528100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>510000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>496600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E48" s="3">
         <v>240400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>243000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>305600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>322300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>264200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>276700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>344000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>351100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>344600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>315900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>332200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>330000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>320200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>322000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>323900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>336000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>335200</v>
+      </c>
+      <c r="E49" s="3">
         <v>341800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>354800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>343800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>318400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>324600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>331500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>338500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>345400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>352300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>359600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>368000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>375000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>380500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>384400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>388400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>452700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E52" s="3">
         <v>75700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>76000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16900</v>
-      </c>
-      <c r="P52" s="3">
-        <v>17000</v>
       </c>
       <c r="Q52" s="3">
         <v>17000</v>
       </c>
       <c r="R52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="S52" s="3">
         <v>16400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>21200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1318100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1418200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1433200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1267100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1237700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1190500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1259600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1274800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1227600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1265700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1241200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1237300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1311700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1271200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1251400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1238700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1306400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E57" s="3">
         <v>49100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>60800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>62600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>43000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>48800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E58" s="3">
         <v>167000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>231400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>77000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>62000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>56900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>117500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>194300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>151500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>108600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>65900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>61000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>66300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>134400</v>
+      </c>
+      <c r="E59" s="3">
         <v>122500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>128000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>147100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>142400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>125700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>115300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>144700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>118600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>111600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>135200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>131200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>104600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>107200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>101100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>194400</v>
+      </c>
+      <c r="E60" s="3">
         <v>338600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>407800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>274800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>256700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>240100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>293700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>235800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>211300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>189200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>194000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>384700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>324200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>255000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>205500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>211200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>216200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>292700</v>
+      </c>
+      <c r="E61" s="3">
         <v>297000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>296900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>305500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>309700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>314000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>318100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>322500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>326600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>331000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>330800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>59400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>118700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>178000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>237200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>253600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>270000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E62" s="3">
         <v>114700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>119900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>99700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>96700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>52700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>56800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>48700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>598900</v>
+      </c>
+      <c r="E66" s="3">
         <v>750300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>824600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>680000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>663200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>606800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>668600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>606900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>584500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>564400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>567100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>484900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>488900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>469900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>478600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>499100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>535500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E72" s="3">
         <v>137100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>89000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>78500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>69900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>85600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>99400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>161400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>140600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>194400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>189900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>266900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>323600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>330200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>310100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>289900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>341100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>719200</v>
+      </c>
+      <c r="E76" s="3">
         <v>667900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>608600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>587100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>574600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>583800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>591000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>667900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>643100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>701300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>674100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>752400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>822800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>801300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>772800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>739600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>770900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E81" s="3">
         <v>48100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>20100</v>
       </c>
       <c r="Q81" s="3">
         <v>20100</v>
       </c>
       <c r="R81" s="3">
+        <v>20100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-51100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E83" s="3">
         <v>20900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>20700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>66300</v>
+      </c>
+      <c r="E89" s="3">
         <v>29200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>46400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>79300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>29900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>58200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>57600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>65400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>58900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>34600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>55200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E94" s="3">
         <v>37100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>149000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-46200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-112500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-76200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>18700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-112700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-45400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>3100</v>
       </c>
       <c r="E101" s="3">
         <v>1500</v>
       </c>
       <c r="F101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="E102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>138400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-78200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-71400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>48000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>32200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,294 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>228500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>225000</v>
+      </c>
+      <c r="F8" s="3">
         <v>240400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>209500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>195600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>238500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>259000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>252600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>238500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>249300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>247400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>241600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>229300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>233600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>234000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>225400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>211000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>228100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>227800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>143100</v>
+      </c>
+      <c r="F9" s="3">
         <v>120200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>104000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>105000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>124900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>130900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>125600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>122500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>138100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>136200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>129700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>124900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>129200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>122700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>120800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>119300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>146000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>126800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F10" s="3">
         <v>120200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>105500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>90600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>113600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>128100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>127000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>116000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>111200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>111200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>111900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>104400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>104400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>111300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>104600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>91700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>82100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>101000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +974,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F12" s="3">
         <v>7500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>7000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>9000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>9000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>8600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>12400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>8200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>9300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>8500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,90 +1100,102 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-31600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>10300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>51700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>6400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>24500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>4400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>31700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>5200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-5500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>57200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>32800</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1185,8 +1230,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1256,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>227100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>246200</v>
+      </c>
+      <c r="F17" s="3">
         <v>199900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>150700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>183900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>212500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>218100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>202800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>251800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>225400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>219000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>215500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>224100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>219300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>233000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>201100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>186300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>285600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>206600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F18" s="3">
         <v>40500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>58800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>11700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>26000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>40900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>49800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-13300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>23900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>28400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>26100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>14300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>24300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>24700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-57500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>21200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,149 +1411,163 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F21" s="3">
         <v>58100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>75800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>28700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>50700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>64900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>72100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>51600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>53400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>48300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>29700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>36300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>22500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>45100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>45000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-37000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>41200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1523,126 +1602,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F23" s="3">
         <v>37400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>55000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>22000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>37800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>45100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-17700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>21800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>25500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>23000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>13300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>22900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>23300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-59200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>18900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>6900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-9200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-8000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>3500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1797,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F26" s="3">
         <v>31900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>48100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>10500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>17600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>29900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>37500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>20800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>18300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>18700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>11600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>21600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>20100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>20100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-51100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>15400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F27" s="3">
         <v>31900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>48100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>17600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>29900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>37500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>20800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>18300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>18700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>11600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>21600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>20100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>20100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-51100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>15400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1992,37 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1915,17 +2036,17 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -1936,8 +2057,14 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2122,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2187,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F33" s="3">
         <v>31900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>48100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>17600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>29900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>37500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>20800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>18300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>18700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>11900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>20100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>20100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-51100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>15400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2382,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F35" s="3">
         <v>31900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>48100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>17600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>29900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>37500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>20800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>18300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>18700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>11900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>20100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>20100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-51100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>15400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2546,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2571,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>173500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>192300</v>
+      </c>
+      <c r="F41" s="3">
         <v>189000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>279200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>275700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>137300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>126400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>112000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>190200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>169400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>154900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>199800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>192100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>180200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>251600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>203600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>171700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>139600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>129600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,244 +2697,274 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>132900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>127600</v>
+      </c>
+      <c r="F43" s="3">
         <v>146900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>141500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>141100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>165200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>170800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>176500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>163300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>185000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>167600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>161600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>151300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>151200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>146700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>143700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>151500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>152700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>150600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>326500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>322600</v>
+      </c>
+      <c r="F44" s="3">
         <v>299700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>305200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>294500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>270300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>254200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>244500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>222000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>194300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>168900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>163600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>175300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>160800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>158800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>168600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>173900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>176900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>188500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>51100</v>
+      </c>
+      <c r="F45" s="3">
         <v>32700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>34400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>48100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>30800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>31200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>34700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>39800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>27400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>24400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>27900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>32200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>29000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>32600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>37500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>30900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>40900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>27900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>684400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>693500</v>
+      </c>
+      <c r="F46" s="3">
         <v>668300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>760300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>759400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>603600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>582600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>567800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>615300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>576100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>515900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>552800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>551000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>521200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>589700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>553400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>528100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>510000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>496600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,126 +3022,144 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>214800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>217600</v>
+      </c>
+      <c r="F48" s="3">
         <v>240000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>240400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>243000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>305600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>322300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>264200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>276700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>344000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>351100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>344600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>315900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>332200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>330000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>320200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>322000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>323900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>336000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>831900</v>
+      </c>
+      <c r="F49" s="3">
         <v>335200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>341800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>354800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>343800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>318400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>324600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>331500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>338500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>345400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>352300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>359600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>368000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>375000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>380500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>384400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>388400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>452700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3217,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3282,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>76900</v>
+      </c>
+      <c r="F52" s="3">
         <v>74500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>75700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>76000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>14100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>14500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>33900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>36100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>16200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>15200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>16000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>14600</v>
       </c>
       <c r="O52" s="3">
         <v>16000</v>
       </c>
       <c r="P52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="R52" s="3">
         <v>16900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>17000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>17000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>16400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>21200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3412,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1794200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1819900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1318100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1418200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1433200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1267100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1237700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1190500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1259600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1274800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1227600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1265700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1241200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1237300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1311700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1271200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1251400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1238700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1306400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3506,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3531,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F57" s="3">
         <v>43000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>49100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>48500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>50700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>52300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>57400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>60800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>63400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>62600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>57900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>65400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>55300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>41500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>41800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>39400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>43000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>48800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F58" s="3">
         <v>17100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>167000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>231400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>77000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>62000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>56900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>117500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>27700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>17200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>12700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>17000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>194300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>151500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>108600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>65900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>61000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>66300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>186200</v>
+      </c>
+      <c r="F59" s="3">
         <v>134400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>122500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>128000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>147100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>142400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>125700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>115300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>144700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>131500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>118600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>111600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>135200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>131200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>104600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>107200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>101100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>228300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>253500</v>
+      </c>
+      <c r="F60" s="3">
         <v>194400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>338600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>407800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>274800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>256700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>240100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>293700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>235800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>211300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>189200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>194000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>384700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>324200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>255000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>205500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>211200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>216200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>767300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>690600</v>
+      </c>
+      <c r="F61" s="3">
         <v>292700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>297000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>296900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>305500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>309700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>314000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>318100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>322500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>326600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>331000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>330800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>59400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>118700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>178000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>237200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>253600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>270000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>144200</v>
+      </c>
+      <c r="F62" s="3">
         <v>111800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>114700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>119900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>99700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>96700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>52700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>56800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>48700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>46600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>44200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>42300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>40800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>46000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>36900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>35900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>34300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>49300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3982,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4047,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4112,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1117100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1088300</v>
+      </c>
+      <c r="F66" s="3">
         <v>598900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>750300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>824600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>680000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>663200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>606800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>668600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>606900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>584500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>564400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>567100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>484900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>488900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>469900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>478600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>499100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>535500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4206,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4267,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4332,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4397,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4462,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>158000</v>
+      </c>
+      <c r="F72" s="3">
         <v>169000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>137100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>89000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>78500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>69900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>85600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>99400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>161400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>140600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>194400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>189900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>266900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>323600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>330200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>310100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>289900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>341100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4592,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4657,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4722,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>677100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>731700</v>
+      </c>
+      <c r="F76" s="3">
         <v>719200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>667900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>608600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>587100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>574600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>583800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>591000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>667900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>643100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>701300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>674100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>752400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>822800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>801300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>772800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>739600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>770900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4852,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F81" s="3">
         <v>31900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>48100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>17600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>29900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>37500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>20800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>18300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>18700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>11900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>20100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>20100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-51100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>15400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +5016,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F83" s="3">
         <v>20800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>20900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>20700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>28800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>27100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>27400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>29800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>25300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>26400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>23000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>22300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>22200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>21800</v>
       </c>
       <c r="S83" s="3">
         <v>22200</v>
       </c>
       <c r="T83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="U83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="V83" s="3">
         <v>22300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5142,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5207,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5272,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5337,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5402,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>66300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>29200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>11800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>46400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>79300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>29900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>20600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>58200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>57400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>23100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>57600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>65400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>58900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>38400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>34600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>55200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5496,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-9400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-10600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-29200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-48500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-27500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-19100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-15400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-13700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-15600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-18900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5622,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5687,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-429100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-9600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>37100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-45100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-19900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>6000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-13200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-27600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-48100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-27300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-18000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-15000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-14600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-17300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5781,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5842,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5907,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5972,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +6037,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>432800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-149900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-64300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>149000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>11400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-46200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-112500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>16100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>7000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-76200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>18700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-112700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>8300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-12700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-3500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-10400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-45400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F101" s="3">
         <v>3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-1700</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-90200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>138400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>10900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>14400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-78200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>20900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-44900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>11900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-71400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>48000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>31900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>32200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>9900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-9200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,306 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>239900</v>
+      </c>
+      <c r="E8" s="3">
         <v>228500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>225000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>240400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>209500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>195600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>238500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>259000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>252600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>238500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>249300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>247400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>241600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>229300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>233600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>234000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>225400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>211000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>228100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>227800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E9" s="3">
         <v>118200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>143100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>120200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>104000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>105000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>124900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>130900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>125600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>122500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>138100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>136200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>129700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>124900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>129200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>122700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>120800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>119300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>146000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>126800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E10" s="3">
         <v>110300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>82000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>120200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>105500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>90600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>113600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>128100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>127000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>116000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>111200</v>
       </c>
       <c r="N10" s="3">
         <v>111200</v>
       </c>
       <c r="O10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="P10" s="3">
         <v>111900</v>
-      </c>
-      <c r="P10" s="3">
-        <v>104400</v>
       </c>
       <c r="Q10" s="3">
         <v>104400</v>
       </c>
       <c r="R10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="S10" s="3">
         <v>111300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>104600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>91700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>82100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>101000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,73 +988,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E12" s="3">
         <v>10200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,84 +1122,90 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E14" s="3">
         <v>16600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-31600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>51700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>24500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>31700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-5500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>57200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E15" s="3">
         <v>12400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>32800</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -1197,8 +1219,8 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1236,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>215400</v>
+      </c>
+      <c r="E17" s="3">
         <v>227100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>246200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>199900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>150700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>183900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>212500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>218100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>202800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>251800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>225400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>219000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>215500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>224100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>219300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>233000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>201100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>186300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>285600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>206600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>40500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>58800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-57500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,146 +1445,153 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-3800</v>
       </c>
       <c r="H20" s="3">
         <v>-3800</v>
       </c>
       <c r="I20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1400</v>
       </c>
       <c r="T20" s="3">
         <v>-1400</v>
       </c>
       <c r="U20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E21" s="3">
         <v>25000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>58100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>75800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>50700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>64900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>72100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>53400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>48300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>45100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>45000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-37000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>41200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
@@ -1569,8 +1608,8 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1608,138 +1647,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>55000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-59200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>18900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-16400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-21300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-8000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>29900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>20100</v>
       </c>
       <c r="T26" s="3">
         <v>20100</v>
       </c>
       <c r="U26" s="3">
+        <v>20100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-51100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>29900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>20100</v>
       </c>
       <c r="T27" s="3">
         <v>20100</v>
       </c>
       <c r="U27" s="3">
+        <v>20100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-51100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2024,8 +2084,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2042,14 +2102,14 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2063,8 +2123,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2259,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3800</v>
       </c>
       <c r="H32" s="3">
         <v>3800</v>
       </c>
       <c r="I32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1400</v>
       </c>
       <c r="T32" s="3">
         <v>1400</v>
       </c>
       <c r="U32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>48100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>29900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>20100</v>
       </c>
       <c r="T33" s="3">
         <v>20100</v>
       </c>
       <c r="U33" s="3">
+        <v>20100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-51100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>48100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>29900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>20100</v>
       </c>
       <c r="T35" s="3">
         <v>20100</v>
       </c>
       <c r="U35" s="3">
+        <v>20100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-51100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2658,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E41" s="3">
         <v>173500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>192300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>189000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>279200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>275700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>137300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>126400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>190200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>169400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>154900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>199800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>192100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>180200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>251600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>203600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>171700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>139600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>129600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,268 +2792,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E43" s="3">
         <v>132900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>127600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>146900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>141500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>141100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>165200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>170800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>176500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>163300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>185000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>167600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>161600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>151300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>151200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>146700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>143700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>151500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>152700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>150600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>322700</v>
+      </c>
+      <c r="E44" s="3">
         <v>326500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>322600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>299700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>305200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>294500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>270300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>254200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>244500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>222000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>194300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>168900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>163600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>175300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>160800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>158800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>168600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>173900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>176900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>188500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E45" s="3">
         <v>51500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>30800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>37500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>40900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>27900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>699200</v>
+      </c>
+      <c r="E46" s="3">
         <v>684400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>693500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>668300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>760300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>759400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>603600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>582600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>567800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>615300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>576100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>515900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>552800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>551000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>521200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>589700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>553400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>528100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>510000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>496600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,138 +3132,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>223700</v>
+      </c>
+      <c r="E48" s="3">
         <v>214800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>217600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>240000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>240400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>243000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>305600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>322300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>264200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>276700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>344000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>351100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>344600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>315900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>332200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>330000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>320200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>322000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>323900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>336000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>805800</v>
+      </c>
+      <c r="E49" s="3">
         <v>820000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>831900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>335200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>341800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>354800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>343800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>318400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>324600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>331500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>338500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>345400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>352300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>359600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>368000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>375000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>380500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>384400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>388400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>452700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E52" s="3">
         <v>75000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>76900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>76000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16900</v>
-      </c>
-      <c r="S52" s="3">
-        <v>17000</v>
       </c>
       <c r="T52" s="3">
         <v>17000</v>
       </c>
       <c r="U52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="V52" s="3">
         <v>16400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>21200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1801500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1794200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1819900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1318100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1418200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1433200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1267100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1237700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1190500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1259600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1274800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1227600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1265700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1241200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1237300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1311700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1271200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1251400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1238700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1306400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,398 +3662,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E57" s="3">
         <v>49100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>60800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>62600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>57900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>65400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>43000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>48800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17000</v>
+        <v>82700</v>
       </c>
       <c r="E58" s="3">
         <v>17000</v>
       </c>
       <c r="F58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G58" s="3">
         <v>17100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>167000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>231400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>77000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>62000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>56900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>117500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>194300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>151500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>108600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>65900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>61000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>66300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E59" s="3">
         <v>162200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>186200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>134400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>122500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>128000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>147100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>142400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>115300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>144700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>131500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>118600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>111600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>135200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>131200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>104600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>107200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>101100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>288500</v>
+      </c>
+      <c r="E60" s="3">
         <v>228300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>253500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>194400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>338600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>407800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>274800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>256700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>240100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>293700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>235800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>211300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>189200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>194000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>384700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>324200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>255000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>205500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>211200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>216200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E61" s="3">
         <v>767300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>690600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>292700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>297000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>296900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>305500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>309700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>314000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>318100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>322500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>326600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>331000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>330800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>59400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>118700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>178000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>237200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>253600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>270000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E62" s="3">
         <v>121400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>144200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>111800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>114700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>119900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>99700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>48700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>49300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1102900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1117100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1088300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>598900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>750300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>824600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>680000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>663200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>606800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>668600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>606900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>584500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>564400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>567100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>484900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>488900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>469900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>478600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>499100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>535500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E72" s="3">
         <v>154600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>158000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>169000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>137100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>89000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>78500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>69900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>85600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>99400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>161400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>140600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>194400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>189900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>266900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>323600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>330200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>310100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>289900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>341100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>698500</v>
+      </c>
+      <c r="E76" s="3">
         <v>677100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>731700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>719200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>667900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>608600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>587100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>574600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>583800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>591000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>667900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>643100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>701300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>674100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>752400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>822800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>801300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>772800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>739600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>770900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>48100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>29900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>20100</v>
       </c>
       <c r="T81" s="3">
         <v>20100</v>
       </c>
       <c r="U81" s="3">
+        <v>20100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-51100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E83" s="3">
         <v>25000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>20800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>66300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>46400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>79300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>58200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>57400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>57600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>65400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>58900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>38400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>34600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>55200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-429100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>37100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-45100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-48100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6285,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>432800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-149900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-64300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>149000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-46200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-112500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-76200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>18700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-112700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-12700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-45400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1500</v>
       </c>
       <c r="H101" s="3">
         <v>1500</v>
       </c>
       <c r="I101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1700</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-90200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>138400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-78200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-44900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-71400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>48000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>32200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,318 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>259800</v>
+      </c>
+      <c r="E8" s="3">
         <v>239900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>228500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>225000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>240400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>209500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>195600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>238500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>259000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>252600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>238500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>249300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>247400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>241600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>229300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>233600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>234000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>225400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>211000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>228100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>227800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E9" s="3">
         <v>117100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>118200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>143100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>120200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>104000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>105000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>124900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>130900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>125600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>122500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>138100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>136200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>129700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>124900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>129200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>122700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>120800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>119300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>146000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>126800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E10" s="3">
         <v>122800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>110300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>82000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>120200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>105500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>90600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>113600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>128100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>127000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>116000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>111200</v>
       </c>
       <c r="O10" s="3">
         <v>111200</v>
       </c>
       <c r="P10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>111900</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>104400</v>
       </c>
       <c r="R10" s="3">
         <v>104400</v>
       </c>
       <c r="S10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="T10" s="3">
         <v>111300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>104600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>91700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>82100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>101000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,76 +1001,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="3">
         <v>8500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,90 +1141,96 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>3900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>16600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-31600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>51700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>24500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>31700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-5500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>57200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E15" s="3">
         <v>11400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>32800</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -1222,8 +1244,8 @@
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1261,8 +1283,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E17" s="3">
         <v>215400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>227100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>246200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>199900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>150700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>183900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>212500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>218100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>202800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>251800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>225400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>219000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>215500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>224100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>219300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>233000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>201100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>186300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>285600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>206600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E18" s="3">
         <v>24500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>40500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>58800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>49800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-57500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,155 +1478,162 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-3800</v>
       </c>
       <c r="I20" s="3">
         <v>-3800</v>
       </c>
       <c r="J20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1400</v>
       </c>
       <c r="U20" s="3">
         <v>-1400</v>
       </c>
       <c r="V20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E21" s="3">
         <v>43500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>58100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>75800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>50700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>64900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>72100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>51600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>53400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>48300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>45100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>45000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-37000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>41200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>10</v>
@@ -1611,8 +1650,8 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1650,144 +1689,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E23" s="3">
         <v>19900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>55000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>25500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>23300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-59200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>18900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E24" s="3">
         <v>5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-16400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-21300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-8000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E26" s="3">
         <v>14900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>20100</v>
       </c>
       <c r="U26" s="3">
         <v>20100</v>
       </c>
       <c r="V26" s="3">
+        <v>20100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-51100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E27" s="3">
         <v>14900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>20100</v>
       </c>
       <c r="U27" s="3">
         <v>20100</v>
       </c>
       <c r="V27" s="3">
+        <v>20100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-51100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>15400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2115,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2087,8 +2147,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -2105,14 +2165,14 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2126,8 +2186,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,144 +2328,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3800</v>
       </c>
       <c r="I32" s="3">
         <v>3800</v>
       </c>
       <c r="J32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1400</v>
       </c>
       <c r="U32" s="3">
         <v>1400</v>
       </c>
       <c r="V32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W32" s="3">
         <v>1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E33" s="3">
         <v>14900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>48100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>20100</v>
       </c>
       <c r="U33" s="3">
         <v>20100</v>
       </c>
       <c r="V33" s="3">
+        <v>20100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-51100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E35" s="3">
         <v>14900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>48100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>20100</v>
       </c>
       <c r="U35" s="3">
         <v>20100</v>
       </c>
       <c r="V35" s="3">
+        <v>20100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-51100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,76 +2744,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E41" s="3">
         <v>192400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>173500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>192300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>189000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>279200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>275700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>137300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>190200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>169400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>154900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>199800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>192100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>180200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>251600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>203600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>171700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>139600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>129600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,280 +2884,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E43" s="3">
         <v>141300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>132900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>127600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>146900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>141500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>141100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>165200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>170800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>176500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>163300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>185000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>167600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>161600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>151300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>151200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>146700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>143700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>151500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>152700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>150600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>305700</v>
+      </c>
+      <c r="E44" s="3">
         <v>322700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>326500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>322600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>299700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>305200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>294500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>270300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>254200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>244500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>222000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>194300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>168900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>163600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>175300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>160800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>158800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>168600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>173900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>176900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>188500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E45" s="3">
         <v>42900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>37500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>40900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>27900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>729500</v>
+      </c>
+      <c r="E46" s="3">
         <v>699200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>684400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>693500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>668300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>760300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>759400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>603600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>582600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>567800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>615300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>576100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>515900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>552800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>551000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>521200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>589700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>553400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>528100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>510000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>496600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3135,144 +3239,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E48" s="3">
         <v>223700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>214800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>217600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>240000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>240400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>243000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>305600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>322300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>264200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>276700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>344000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>351100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>344600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>315900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>332200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>330000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>320200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>322000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>323900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>336000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>792200</v>
+      </c>
+      <c r="E49" s="3">
         <v>805800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>820000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>831900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>335200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>341800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>354800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>343800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>318400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>324600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>331500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>338500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>345400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>352300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>359600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>368000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>375000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>380500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>384400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>388400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>452700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E52" s="3">
         <v>72700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>76900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>36100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16900</v>
-      </c>
-      <c r="T52" s="3">
-        <v>17000</v>
       </c>
       <c r="U52" s="3">
         <v>17000</v>
       </c>
       <c r="V52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="W52" s="3">
         <v>16400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>21200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1831400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1801500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1794200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1819900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1318100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1418200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1433200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1267100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1237700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1190500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1259600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1274800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1227600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1265700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1241200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1237300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1311700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1271200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1251400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1238700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1306400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,416 +3792,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E57" s="3">
         <v>45000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>60800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>62600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>57900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>65400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>43000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>48800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>144100</v>
+      </c>
+      <c r="E58" s="3">
         <v>82700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>17000</v>
       </c>
       <c r="F58" s="3">
         <v>17000</v>
       </c>
       <c r="G58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H58" s="3">
         <v>17100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>167000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>231400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>77000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>62000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>56900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>117500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>27700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>194300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>151500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>108600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>65900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>61000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>66300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E59" s="3">
         <v>160800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>162200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>186200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>134400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>122500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>128000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>147100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>142400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>125700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>115300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>144700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>131500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>118600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>111600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>135200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>131200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>104600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>107200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>101100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>355400</v>
+      </c>
+      <c r="E60" s="3">
         <v>288500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>228300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>253500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>194400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>338600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>407800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>274800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>256700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>240100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>293700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>235800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>211300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>189200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>194000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>384700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>324200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>255000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>205500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>211200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>216200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>633100</v>
+      </c>
+      <c r="E61" s="3">
         <v>698000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>767300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>690600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>292700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>297000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>296900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>305500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>309700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>314000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>318100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>322500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>326600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>331000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>330800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>59400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>118700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>178000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>237200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>253600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>270000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E62" s="3">
         <v>116400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>121400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>144200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>111800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>114700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>119900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>99700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>48700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>44200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>34300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>49300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1102900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1117100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1088300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>598900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>750300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>824600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>680000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>663200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>606800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>668600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>606900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>584500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>564400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>567100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>484900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>488900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>469900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>478600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>499100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>535500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>192700</v>
+      </c>
+      <c r="E72" s="3">
         <v>169400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>154600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>158000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>169000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>137100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>89000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>78500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>69900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>85600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>99400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>161400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>140600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>194400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>189900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>266900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>323600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>330200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>310100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>289900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>341100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>730800</v>
+      </c>
+      <c r="E76" s="3">
         <v>698500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>677100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>731700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>719200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>667900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>608600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>587100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>574600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>583800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>591000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>667900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>643100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>701300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>674100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>752400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>822800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>801300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>772800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>739600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>770900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E81" s="3">
         <v>14900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>48100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>20100</v>
       </c>
       <c r="U81" s="3">
         <v>20100</v>
       </c>
       <c r="V81" s="3">
+        <v>20100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-51100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,76 +5413,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E83" s="3">
         <v>23500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>20800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>20900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>20700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>25300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E89" s="3">
         <v>43500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>66300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>29200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>46400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>79300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>58200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>57400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>57600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>65400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>58900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>38400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>34600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>55200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-429100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>37100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-45100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6248,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6317,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,208 +6530,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>432800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-149900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-64300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>149000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-46200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-112500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-76200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>18700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-112700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-12700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-45400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1500</v>
       </c>
       <c r="I101" s="3">
         <v>1500</v>
       </c>
       <c r="J101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1700</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E102" s="3">
         <v>19000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-90200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>138400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-78200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-44900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-71400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>48000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>31900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>32200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>9900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,342 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>261500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>265000</v>
+      </c>
+      <c r="F8" s="3">
         <v>259800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>239900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>228500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>225000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>240400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>209500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>195600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>238500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>259000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>252600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>238500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>249300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>247400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>241600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>229300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>233600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>234000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>225400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>211000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>228100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>227800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>128700</v>
+      </c>
+      <c r="F9" s="3">
         <v>121400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>117100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>118200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>143100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>120200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>104000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>105000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>124900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>130900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>125600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>122500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>138100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>136200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>129700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>124900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>129200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>122700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>120800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>119300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>146000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>126800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>136300</v>
+      </c>
+      <c r="F10" s="3">
         <v>138400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>122800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>110300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>82000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>120200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>105500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>90600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>113600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>128100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>127000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>116000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>111200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>111200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>111900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>104400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>104400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>111300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>104600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>91700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>82100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>101000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,79 +1026,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F12" s="3">
         <v>12500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>10800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>8700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>9000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>8600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>9400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>12400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>8200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>9300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>8500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,99 +1176,111 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>16600</v>
       </c>
-      <c r="G14" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>300</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-31600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>10300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>51700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>6400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>24500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>4400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>31700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>5200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-5500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>57200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F15" s="3">
         <v>12200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>11400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>12400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>32800</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1247,11 +1291,11 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1286,8 +1330,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,150 +1360,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>230700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>245800</v>
+      </c>
+      <c r="F17" s="3">
         <v>224100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>215400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>227100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>246200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>199900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>150700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>183900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>212500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>218100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>202800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>251800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>225400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>219000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>215500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>224100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>219300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>233000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>201100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>186300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>285600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>206600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F18" s="3">
         <v>35700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>24500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-21200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>40500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>58800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>26000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>40900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>49800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-13300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>23900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>28400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>26100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>5200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>14300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>24300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>24700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-57500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>21200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1479,150 +1543,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F21" s="3">
         <v>55800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>43500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>25000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>58100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>75800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>28700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>50700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>64900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>72100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>51600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>53400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>48300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>29700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>36300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>22500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>45100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>45000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-37000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>41200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,14 +1710,14 @@
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>3000</v>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
+      <c r="H22" s="3">
+        <v>3000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>10</v>
@@ -1653,11 +1731,11 @@
       <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1692,150 +1770,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F23" s="3">
         <v>31400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>19900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-27400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>37400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>55000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>22000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>37800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>45100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-17700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>21800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>25500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>23000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>13300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>22900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>23300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-59200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>18900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F24" s="3">
         <v>8200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-16400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-9200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-21300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-8000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>3500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1905,150 +2001,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F26" s="3">
         <v>23200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>31900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>48100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>10500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>17600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>29900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>37500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>20800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>18300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>18700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>11600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>21600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>20100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>20100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-51100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>15400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F27" s="3">
         <v>23200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>31900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>48100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>17600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>29900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>37500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-8500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>20800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>18300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>18700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>11600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>21600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>20100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>20100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-51100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>15400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2118,8 +2232,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,11 +2270,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -2168,17 +2288,17 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2189,8 +2309,14 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2260,8 +2386,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,150 +2463,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F32" s="3">
         <v>4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F33" s="3">
         <v>23200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>31900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>48100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>17600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>29900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>37500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>20800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>18300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>18700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>11900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-6500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>20100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>20100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-51100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>15400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2544,155 +2694,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F35" s="3">
         <v>23200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>31900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>48100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>17600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>29900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>37500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>20800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>18300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>18700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>11900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-6500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>20100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>20100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-51100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>15400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2718,8 +2886,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2745,79 +2915,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>259500</v>
+      </c>
+      <c r="F41" s="3">
         <v>236900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>192400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>173500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>192300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>189000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>279200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>275700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>137300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>126400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>112000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>190200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>169400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>154900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>199800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>192100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>180200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>251600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>203600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>171700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>139600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>129600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2887,292 +3065,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>159400</v>
+      </c>
+      <c r="F43" s="3">
         <v>155000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>141300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>132900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>127600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>146900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>141500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>141100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>165200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>170800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>176500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>163300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>185000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>167600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>161600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>151300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>151200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>146700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>143700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>151500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>152700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>150600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>277900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>293000</v>
+      </c>
+      <c r="F44" s="3">
         <v>305700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>322700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>326500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>322600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>299700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>305200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>294500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>270300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>254200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>244500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>222000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>194300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>168900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>163600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>175300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>160800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>158800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>168600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>173900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>176900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>188500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F45" s="3">
         <v>31900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>42900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>51500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>51100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>32700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>34400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>48100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>30800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>31200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>34700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>39800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>27400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>24400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>27900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>32200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>29000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>32600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>37500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>30900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>40900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>27900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>687800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>756000</v>
+      </c>
+      <c r="F46" s="3">
         <v>729500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>699200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>684400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>693500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>668300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>760300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>759400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>603600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>582600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>567800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>615300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>576100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>515900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>552800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>551000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>521200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>589700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>553400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>528100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>510000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>496600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3242,150 +3450,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>288300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>258500</v>
+      </c>
+      <c r="F48" s="3">
         <v>238800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>223700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>214800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>217600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>240000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>240400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>243000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>305600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>322300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>264200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>276700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>344000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>351100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>344600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>315900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>332200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>330000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>320200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>322000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>323900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>336000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>768800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>777500</v>
+      </c>
+      <c r="F49" s="3">
         <v>792200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>805800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>820000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>831900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>335200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>341800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>354800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>343800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>318400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>324600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>331500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>338500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>345400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>352300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>359600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>368000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>375000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>380500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>384400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>388400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>452700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3681,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,79 +3758,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>67700</v>
+      </c>
+      <c r="F52" s="3">
         <v>70900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>72700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>75000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>76900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>74500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>75700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>76000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>14100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>14500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>33900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>36100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>16200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>15200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>16000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>14600</v>
       </c>
       <c r="S52" s="3">
         <v>16000</v>
       </c>
       <c r="T52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="U52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="V52" s="3">
         <v>16900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>17000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>17000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>16400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>21200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,79 +3912,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1820500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1859700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1831400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1801500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1794200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1819900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1318100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1418200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1433200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1267100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1237700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1190500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1259600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1274800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1227600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1265700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1241200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1237300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1311700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1271200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1251400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1238700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1306400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +4022,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,434 +4051,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>58400</v>
+      </c>
+      <c r="F57" s="3">
         <v>51200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>45000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>49100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>50300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>43000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>49100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>48500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>50700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>52300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>57400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>60800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>63400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>62600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>57900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>65400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>55300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>41500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>41800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>39400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>43000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>48800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>214100</v>
+      </c>
+      <c r="F58" s="3">
         <v>144100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>82700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>17000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>17000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>17100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>167000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>231400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>77000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>62000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>56900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>117500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>27700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>17200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>12700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>17000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>194300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>151500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>108600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>65900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>61000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>66300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>169700</v>
+      </c>
+      <c r="F59" s="3">
         <v>160200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>160800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>162200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>186200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>134400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>122500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>128000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>147100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>142400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>125700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>115300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>144700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>131500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>118600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>111600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>135200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>131200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>104600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>100300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>107200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>101100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>442300</v>
+      </c>
+      <c r="F60" s="3">
         <v>355400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>288500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>228300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>253500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>194400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>338600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>407800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>274800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>256700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>240100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>293700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>235800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>211300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>189200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>194000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>384700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>324200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>255000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>205500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>211200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>216200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>763100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>559400</v>
+      </c>
+      <c r="F61" s="3">
         <v>633100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>698000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>767300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>690600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>292700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>297000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>296900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>305500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>309700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>314000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>318100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>322500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>326600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>331000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>330800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>59400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>118700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>178000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>237200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>253600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>270000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>106500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>108600</v>
+      </c>
+      <c r="F62" s="3">
         <v>112100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>116400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>121400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>144200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>111800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>114700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>119900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>99700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>96700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>52700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>56800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>48700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>46600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>44200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>42300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>40800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>46000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>36900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>35900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>34300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>49300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4586,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4361,8 +4663,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,79 +4740,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1050100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1110300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1102900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1117100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1088300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>598900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>750300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>824600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>680000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>663200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>606800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>668600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>606900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>584500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>564400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>567100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>484900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>488900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>469900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>478600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>499100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>535500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4850,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4923,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +5000,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +5077,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,79 +5154,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>202400</v>
+      </c>
+      <c r="F72" s="3">
         <v>192700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>169400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>154600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>158000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>169000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>137100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>89000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>78500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>69900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>85600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>99400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>161400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>140600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>194400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>189900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>266900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>323600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>330200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>310100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>289900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>341100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5308,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5385,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,79 +5462,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>770400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>749400</v>
+      </c>
+      <c r="F76" s="3">
         <v>730800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>698500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>677100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>731700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>719200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>667900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>608600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>587100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>574600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>583800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>591000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>667900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>643100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>701300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>674100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>752400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>822800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>801300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>772800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>739600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>770900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,155 +5616,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F81" s="3">
         <v>23200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>31900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>48100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>17600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>29900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>37500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>20800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>18300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>18700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>11900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-6500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>20100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>20100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-51100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>15400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,79 +5808,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F83" s="3">
         <v>24400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>23500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>25000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>21900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>20800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>20900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>20700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>28800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>27000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>27400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>29800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>27900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>25300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>26400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>23000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>22300</v>
-      </c>
-      <c r="U83" s="3">
-        <v>22200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>21800</v>
       </c>
       <c r="W83" s="3">
         <v>22200</v>
       </c>
       <c r="X83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="Z83" s="3">
         <v>22300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5958,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +6035,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +6112,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +6189,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,79 +6266,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>68100</v>
+      </c>
+      <c r="F89" s="3">
         <v>62400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>43500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>66300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>29200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>11800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>46400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>79300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>29900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>20600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>58200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>57400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>23100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>57600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>65400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>58900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>38400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>34600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>55200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,79 +6376,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-26700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-20800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-13900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-11600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-10600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-20400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-9500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-13700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-48500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-27500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-19100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-26600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-15400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-13700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-15600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-18900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6526,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,79 +6603,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-20500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-15900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-429100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>37100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-23900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-45100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-19900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-13200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-48100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-27300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-18000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-26300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-15000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-14600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,8 +6713,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6320,8 +6786,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6863,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6940,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,217 +7017,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>432800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-149900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-64300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>149000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>11400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-46200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-112500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>16100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>7000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>18700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-112700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>8300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-12700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-3500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-10400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-45400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F102" s="3">
         <v>44500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>19000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-18800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-90200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>138400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>10900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>14400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-78200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>20900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>14500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>11900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-71400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>48000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>31900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>32200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>9900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,342 +665,354 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>297500</v>
+      </c>
+      <c r="E8" s="3">
         <v>261500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>265000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>259800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>239900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>228500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>225000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>240400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>209500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>195600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>238500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>259000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>252600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>238500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>249300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>247400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>241600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>229300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>233600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>234000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>225400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>211000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>228100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>227800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>139600</v>
+      </c>
+      <c r="E9" s="3">
         <v>119400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>128700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>121400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>117100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>118200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>143100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>120200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>104000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>105000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>124900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>130900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>125600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>122500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>138100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>129700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>124900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>129200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>122700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>120800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>119300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>146000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>126800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E10" s="3">
         <v>142100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>136300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>138400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>122800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>110300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>82000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>120200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>105500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>90600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>113600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>128100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>127000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>116000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>111200</v>
       </c>
       <c r="R10" s="3">
         <v>111200</v>
       </c>
       <c r="S10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="T10" s="3">
         <v>111900</v>
-      </c>
-      <c r="T10" s="3">
-        <v>104400</v>
       </c>
       <c r="U10" s="3">
         <v>104400</v>
       </c>
       <c r="V10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="W10" s="3">
         <v>111300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>104600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>91700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>82100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>101000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,85 +1040,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E12" s="3">
         <v>7700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>8500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1182,108 +1198,114 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>16600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-31600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>51700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>24500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>31700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>57200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E15" s="3">
         <v>8400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>32800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1297,8 +1319,8 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1336,8 +1358,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1362,162 +1387,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
         <v>230700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>245800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>224100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>215400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>227100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>246200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>199900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>150700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>183900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>212500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>218100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>202800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>251800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>225400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>219000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>215500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>224100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>219300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>233000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>201100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>186300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>285600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>206600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
         <v>30800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>35700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-21200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>49800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>23900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>24700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-57500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>21200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1545,162 +1577,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-3800</v>
       </c>
       <c r="L20" s="3">
         <v>-3800</v>
       </c>
       <c r="M20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1400</v>
       </c>
       <c r="X20" s="3">
         <v>-1400</v>
       </c>
       <c r="Y20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
         <v>47900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>40100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>55800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>43500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>58100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>75800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>50700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>64900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>72100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>51600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>53400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>48300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>29700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>36300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>45100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>45000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-37000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>41200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1716,11 +1755,11 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3">
         <v>3000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>10</v>
@@ -1737,8 +1776,8 @@
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1776,162 +1815,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E23" s="3">
         <v>25500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>31400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>55000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>45100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>13300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>23300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-59200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>18900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5600</v>
+        <v>7900</v>
       </c>
       <c r="E24" s="3">
         <v>5600</v>
       </c>
       <c r="F24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G24" s="3">
         <v>8200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-21300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,162 +2055,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
         <v>19900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>11600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>21600</v>
-      </c>
-      <c r="W26" s="3">
-        <v>20100</v>
       </c>
       <c r="X26" s="3">
         <v>20100</v>
       </c>
       <c r="Y26" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-51100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>15400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
         <v>19900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>29900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>37500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>21600</v>
-      </c>
-      <c r="W27" s="3">
-        <v>20100</v>
       </c>
       <c r="X27" s="3">
         <v>20100</v>
       </c>
       <c r="Y27" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-51100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>15400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2238,8 +2295,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2276,8 +2336,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2294,14 +2354,14 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
@@ -2315,8 +2375,11 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2392,8 +2455,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2469,162 +2535,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
         <v>5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3800</v>
       </c>
       <c r="L32" s="3">
         <v>3800</v>
       </c>
       <c r="M32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1400</v>
       </c>
       <c r="X32" s="3">
         <v>1400</v>
       </c>
       <c r="Y32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
         <v>19900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>29900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>37500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6500</v>
-      </c>
-      <c r="W33" s="3">
-        <v>20100</v>
       </c>
       <c r="X33" s="3">
         <v>20100</v>
       </c>
       <c r="Y33" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-51100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>15400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2700,167 +2775,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
         <v>19900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>29900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>37500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6500</v>
-      </c>
-      <c r="W35" s="3">
-        <v>20100</v>
       </c>
       <c r="X35" s="3">
         <v>20100</v>
       </c>
       <c r="Y35" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-51100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>15400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2888,8 +2972,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2917,85 +3002,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>241200</v>
+      </c>
+      <c r="E41" s="3">
         <v>214900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>259500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>236900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>192400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>173500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>192300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>189000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>279200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>275700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>137300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>126400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>190200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>169400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>154900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>199800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>192100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>180200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>251600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>203600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>171700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>139600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>129600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3071,316 +3160,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>171500</v>
+      </c>
+      <c r="E43" s="3">
         <v>146500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>159400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>155000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>141300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>132900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>127600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>146900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>141500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>141100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>165200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>170800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>176500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>163300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>185000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>167600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>161600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>151300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>151200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>146700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>143700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>151500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>152700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>150600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>254700</v>
+      </c>
+      <c r="E44" s="3">
         <v>277900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>293000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>305700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>322700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>326500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>322600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>299700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>305200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>294500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>270300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>254200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>244500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>222000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>194300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>168900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>163600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>175300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>160800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>158800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>168600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>173900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>176900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>188500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E45" s="3">
         <v>48500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>27900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>29000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>37500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>30900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>40900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>27900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>715800</v>
+      </c>
+      <c r="E46" s="3">
         <v>687800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>756000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>729500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>699200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>684400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>693500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>668300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>760300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>759400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>603600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>582600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>567800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>615300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>576100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>515900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>552800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>551000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>521200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>589700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>553400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>528100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>510000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>496600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3456,162 +3560,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>307800</v>
+      </c>
+      <c r="E48" s="3">
         <v>288300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>258500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>238800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>223700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>214800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>217600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>240000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>240400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>243000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>305600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>322300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>264200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>276700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>344000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>351100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>344600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>315900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>332200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>330000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>320200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>322000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>323900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>336000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>757600</v>
+      </c>
+      <c r="E49" s="3">
         <v>768800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>777500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>792200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>805800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>820000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>831900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>335200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>341800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>354800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>343800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>318400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>324600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>331500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>338500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>345400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>352300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>359600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>368000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>375000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>380500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>384400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>388400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>452700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3687,8 +3800,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3764,85 +3880,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E52" s="3">
         <v>75600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>67700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>70900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>72700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>74500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16900</v>
-      </c>
-      <c r="W52" s="3">
-        <v>17000</v>
       </c>
       <c r="X52" s="3">
         <v>17000</v>
       </c>
       <c r="Y52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>16400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>21200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3918,85 +4040,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1865100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1820500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1859700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1831400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1801500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1794200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1819900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1318100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1418200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1433200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1267100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1237700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1190500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1259600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1274800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1227600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1265700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1241200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1237300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1311700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1271200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1251400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1238700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1306400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4024,8 +4152,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4053,470 +4182,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E57" s="3">
         <v>57900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>58400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>50700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>57400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>60800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>63400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>62600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>57900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>65400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>55300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>41500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>41800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>39400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>43000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>48800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E58" s="3">
         <v>6900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>214100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>144100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>82700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>17000</v>
       </c>
       <c r="I58" s="3">
         <v>17000</v>
       </c>
       <c r="J58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K58" s="3">
         <v>17100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>167000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>231400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>77000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>62000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>56900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>117500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>27700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>12700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>194300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>151500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>108600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>65900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>61000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>66300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E59" s="3">
         <v>115700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>169700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>160200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>160800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>162200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>186200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>134400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>122500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>128000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>147100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>142400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>125700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>115300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>144700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>131500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>118600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>111600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>135200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>131200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>104600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>100300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>107200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>101100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>262200</v>
+      </c>
+      <c r="E60" s="3">
         <v>180500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>442300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>355400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>288500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>228300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>253500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>194400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>338600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>407800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>274800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>256700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>240100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>293700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>235800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>211300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>189200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>194000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>384700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>324200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>255000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>205500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>211200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>216200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>759600</v>
+      </c>
+      <c r="E61" s="3">
         <v>763100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>559400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>633100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>698000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>767300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>690600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>292700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>297000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>296900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>305500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>309700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>314000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>318100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>322500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>326600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>331000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>330800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>59400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>118700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>178000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>237200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>253600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>270000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E62" s="3">
         <v>106500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>112100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>116400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>121400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>144200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>111800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>114700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>119900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>99700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>96700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>48700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>42300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>46000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>36900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>34300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>49300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,8 +4740,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4669,8 +4820,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4746,85 +4900,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3">
         <v>1050100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1110300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1102900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1117100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1088300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>598900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>750300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>824600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>680000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>663200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>606800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>668600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>606900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>584500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>564400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>567100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>484900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>488900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>469900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>478600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>499100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>535500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4852,8 +5012,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4929,8 +5090,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5006,8 +5170,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5083,8 +5250,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5160,85 +5330,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>204400</v>
+      </c>
+      <c r="E72" s="3">
         <v>222300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>202400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>192700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>169400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>154600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>158000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>169000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>137100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>89000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>69900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>85600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>99400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>161400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>140600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>194400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>189900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>266900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>323600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>330200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>310100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>289900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>341100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5314,8 +5490,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5391,8 +5570,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5468,85 +5650,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>729000</v>
+      </c>
+      <c r="E76" s="3">
         <v>770400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>749400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>730800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>698500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>677100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>731700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>719200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>667900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>608600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>587100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>574600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>583800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>591000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>667900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>643100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>701300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>674100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>752400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>822800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>801300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>772800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>739600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>770900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5622,167 +5810,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
         <v>19900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>29900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>37500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6500</v>
-      </c>
-      <c r="W81" s="3">
-        <v>20100</v>
       </c>
       <c r="X81" s="3">
         <v>20100</v>
       </c>
       <c r="Y81" s="3">
+        <v>20100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-51100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>15400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5810,85 +6007,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E83" s="3">
         <v>22400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>20800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>22200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5964,8 +6165,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6041,8 +6245,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6118,8 +6325,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6195,8 +6405,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6272,85 +6485,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E89" s="3">
         <v>42000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>68100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>66300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>46400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>79300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>29900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>58200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>57400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>23100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>57600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>65400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>58900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>38400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>34600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>55200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6378,85 +6597,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-18900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6532,8 +6755,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6609,85 +6835,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-429100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>37100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-45100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-26300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-17300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6715,8 +6947,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6792,8 +7025,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6869,8 +7105,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6946,8 +7185,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7023,235 +7265,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>432800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-149900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-64300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>149000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-46200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-112500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-76200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>18700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-112700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-12700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-45400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1500</v>
       </c>
       <c r="L101" s="3">
         <v>1500</v>
       </c>
       <c r="M101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>44500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-90200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>138400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-78200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-44900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-71400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>48000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>31900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>32200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>9900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-9200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,354 +665,367 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>305300</v>
+      </c>
+      <c r="E8" s="3">
         <v>297500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>261500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>265000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>259800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>239900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>228500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>225000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>240400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>209500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>195600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>238500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>259000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>252600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>238500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>249300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>247400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>241600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>229300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>233600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>234000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>225400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>211000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>228100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>227800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E9" s="3">
         <v>139600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>119400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>128700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>121400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>117100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>118200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>143100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>120200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>104000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>105000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>124900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>130900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>125600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>122500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>138100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>129700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>124900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>129200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>122700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>120800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>119300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>146000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>126800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E10" s="3">
         <v>157900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>142100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>136300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>138400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>122800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>110300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>82000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>120200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>105500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>90600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>113600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>128100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>127000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>116000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>111200</v>
       </c>
       <c r="S10" s="3">
         <v>111200</v>
       </c>
       <c r="T10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="U10" s="3">
         <v>111900</v>
-      </c>
-      <c r="U10" s="3">
-        <v>104400</v>
       </c>
       <c r="V10" s="3">
         <v>104400</v>
       </c>
       <c r="W10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="X10" s="3">
         <v>111300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>104600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>91700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>82100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>101000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,88 +1054,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10900</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F12" s="3">
         <v>7700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>10200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>10800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>8500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1201,114 +1218,120 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-400</v>
+        <v>2800</v>
       </c>
       <c r="E14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-31600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>51700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>24500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>31700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>57200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E15" s="3">
         <v>8200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>32800</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -1322,8 +1345,8 @@
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1361,8 +1384,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1388,168 +1414,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>262000</v>
       </c>
       <c r="E17" s="3">
+        <v>250800</v>
+      </c>
+      <c r="F17" s="3">
         <v>230700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>245800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>224100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>215400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>227100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>246200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>199900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>150700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>183900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>212500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>218100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>202800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>251800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>225400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>219000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>215500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>224100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>219300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>233000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>201100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>186300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>285600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>206600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>43300</v>
       </c>
       <c r="E18" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F18" s="3">
         <v>30800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>35700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>40900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>49800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>23900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>24300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>24700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-57500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>21200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1578,168 +1611,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>-1100</v>
       </c>
       <c r="E20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-3800</v>
       </c>
       <c r="M20" s="3">
         <v>-3800</v>
       </c>
       <c r="N20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-800</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-1400</v>
       </c>
       <c r="Y20" s="3">
         <v>-1400</v>
       </c>
       <c r="Z20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>65800</v>
       </c>
       <c r="E21" s="3">
+        <v>64500</v>
+      </c>
+      <c r="F21" s="3">
         <v>47900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>40100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>55800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>43500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>58100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>75800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>64900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>72100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>51600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>53400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>48300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>29700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>36300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>45100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>45000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-37000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>41200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1758,11 +1798,11 @@
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <v>3000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
@@ -1779,8 +1819,8 @@
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1818,168 +1858,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E23" s="3">
         <v>41100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>31400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>45100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>13300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>23300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-59200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>18900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E24" s="3">
         <v>7900</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5600</v>
       </c>
       <c r="F24" s="3">
         <v>5600</v>
       </c>
       <c r="G24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H24" s="3">
         <v>8200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-21300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2058,168 +2107,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>32900</v>
       </c>
       <c r="E26" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F26" s="3">
         <v>19900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>29900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>37500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>21600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>20100</v>
       </c>
       <c r="Y26" s="3">
         <v>20100</v>
       </c>
       <c r="Z26" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-51100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>15400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>32900</v>
       </c>
       <c r="E27" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F27" s="3">
         <v>19900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>29900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>37500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>21600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>20100</v>
       </c>
       <c r="Y27" s="3">
         <v>20100</v>
       </c>
       <c r="Z27" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-51100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>15400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2298,8 +2356,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2339,8 +2400,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2357,14 +2418,14 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2378,8 +2439,11 @@
       <c r="AB29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2458,8 +2522,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2538,168 +2605,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>1100</v>
       </c>
       <c r="E32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F32" s="3">
         <v>5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>3800</v>
       </c>
       <c r="M32" s="3">
         <v>3800</v>
       </c>
       <c r="N32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>800</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1400</v>
       </c>
       <c r="Y32" s="3">
         <v>1400</v>
       </c>
       <c r="Z32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>32900</v>
       </c>
       <c r="E33" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F33" s="3">
         <v>19900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>29900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>37500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6500</v>
-      </c>
-      <c r="X33" s="3">
-        <v>20100</v>
       </c>
       <c r="Y33" s="3">
         <v>20100</v>
       </c>
       <c r="Z33" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-51100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>15400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2778,173 +2854,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>32900</v>
       </c>
       <c r="E35" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F35" s="3">
         <v>19900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>29900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>37500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6500</v>
-      </c>
-      <c r="X35" s="3">
-        <v>20100</v>
       </c>
       <c r="Y35" s="3">
         <v>20100</v>
       </c>
       <c r="Z35" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-51100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>15400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2973,8 +3058,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3003,88 +3089,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E41" s="3">
         <v>241200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>214900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>259500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>236900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>192400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>173500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>192300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>189000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>279200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>275700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>137300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>126400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>112000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>190200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>169400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>154900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>199800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>192100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>180200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>251600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>203600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>171700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>139600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>129600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3163,328 +3253,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>181100</v>
+      </c>
+      <c r="E43" s="3">
         <v>171500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>146500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>159400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>155000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>141300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>132900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>127600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>146900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>141500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>141100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>165200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>170800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>176500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>163300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>185000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>167600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>161600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>151300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>151200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>146700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>143700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>151500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>152700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>150600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>255800</v>
+      </c>
+      <c r="E44" s="3">
         <v>254700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>277900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>293000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>305700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>322700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>326500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>322600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>299700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>305200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>294500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>270300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>254200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>244500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>222000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>194300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>168900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>163600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>175300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>160800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>158800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>168600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>173900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>176900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>188500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E45" s="3">
         <v>48400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>51100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>39800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>32200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>29000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>37500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>30900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>40900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>27900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>706300</v>
+      </c>
+      <c r="E46" s="3">
         <v>715800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>687800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>756000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>729500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>699200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>684400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>693500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>668300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>760300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>759400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>603600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>582600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>567800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>615300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>576100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>515900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>552800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>551000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>521200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>589700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>553400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>528100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>510000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>496600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3563,168 +3668,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>313100</v>
+      </c>
+      <c r="E48" s="3">
         <v>307800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>288300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>258500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>238800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>223700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>214800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>217600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>240000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>240400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>243000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>305600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>322300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>264200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>276700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>344000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>351100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>344600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>315900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>332200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>330000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>320200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>322000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>323900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>336000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>750500</v>
+      </c>
+      <c r="E49" s="3">
         <v>757600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>768800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>777500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>792200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>805800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>820000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>831900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>335200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>341800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>354800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>343800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>318400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>324600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>331500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>338500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>345400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>352300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>359600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>368000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>375000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>380500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>384400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>388400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>452700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3803,8 +3917,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3883,88 +4000,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E52" s="3">
         <v>83900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>67700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>70900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>72700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>76900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>33900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16900</v>
-      </c>
-      <c r="X52" s="3">
-        <v>17000</v>
       </c>
       <c r="Y52" s="3">
         <v>17000</v>
       </c>
       <c r="Z52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="AA52" s="3">
         <v>16400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>21200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4043,88 +4166,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1878100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1865100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1820500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1859700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1831400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1801500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1794200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1819900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1318100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1418200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1433200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1267100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1237700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1190500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1259600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1274800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1227600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1265700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1241200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1237300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1311700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1271200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1251400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1238700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1306400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4153,8 +4282,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4183,488 +4313,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E57" s="3">
         <v>61500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>50700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>52300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>57400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>60800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>63400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>62600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>57900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>65400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>55300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>41500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>41800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>39400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>43000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>48800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E58" s="3">
         <v>58200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>214100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>144100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>82700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>17000</v>
       </c>
       <c r="J58" s="3">
         <v>17000</v>
       </c>
       <c r="K58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L58" s="3">
         <v>17100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>167000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>231400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>77000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>62000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>56900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>117500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>27700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>12700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>194300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>151500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>108600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>65900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>61000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>66300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>153200</v>
+      </c>
+      <c r="E59" s="3">
         <v>142500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>115700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>169700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>160200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>160800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>162200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>186200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>134400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>122500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>128000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>147100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>142400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>125700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>115300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>144700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>131500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>118600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>111600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>135200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>131200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>104600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>100300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>107200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>101100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E60" s="3">
         <v>262200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>180500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>442300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>355400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>288500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>228300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>253500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>194400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>338600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>407800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>274800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>256700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>240100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>293700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>235800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>211300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>189200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>194000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>384700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>324200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>255000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>205500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>211200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>216200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>756800</v>
+      </c>
+      <c r="E61" s="3">
         <v>759600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>763100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>559400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>633100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>698000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>767300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>690600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>292700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>297000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>296900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>305500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>309700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>314000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>318100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>322500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>326600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>331000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>330800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>59400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>118700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>178000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>237200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>253600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>270000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E62" s="3">
         <v>114400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>108600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>112100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>116400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>121400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>144200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>114700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>119900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>99700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>96700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>52700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>48700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>46000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>36900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>35900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>34300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>49300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4743,8 +4892,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4823,8 +4975,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4903,88 +5058,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>10</v>
+      <c r="D66" s="3">
+        <v>1102100</v>
       </c>
       <c r="E66" s="3">
+        <v>1136100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1050100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1110300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1102900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1117100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1088300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>598900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>750300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>824600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>680000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>663200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>606800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>668600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>606900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>584500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>564400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>567100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>484900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>488900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>469900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>478600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>499100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>535500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5013,8 +5174,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5093,8 +5255,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5173,8 +5338,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5253,8 +5421,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5333,88 +5504,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>223800</v>
+      </c>
+      <c r="E72" s="3">
         <v>204400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>222300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>202400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>192700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>169400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>154600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>158000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>169000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>137100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>89000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>78500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>69900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>85600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>99400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>161400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>140600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>194400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>189900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>266900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>323600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>330200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>310100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>289900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>341100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5493,8 +5670,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5573,8 +5753,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5653,88 +5836,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>776000</v>
+      </c>
+      <c r="E76" s="3">
         <v>729000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>770400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>749400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>730800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>698500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>677100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>731700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>719200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>667900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>608600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>587100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>574600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>583800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>591000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>667900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>643100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>701300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>674100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>752400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>822800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>801300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>772800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>739600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>770900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5813,173 +6002,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>32900</v>
       </c>
       <c r="E81" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F81" s="3">
         <v>19900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>29900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>37500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6500</v>
-      </c>
-      <c r="X81" s="3">
-        <v>20100</v>
       </c>
       <c r="Y81" s="3">
         <v>20100</v>
       </c>
       <c r="Z81" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-51100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>15400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6008,88 +6206,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E83" s="3">
         <v>23400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>20700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>26400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>22200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>22300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6168,8 +6370,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6248,8 +6453,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6328,8 +6536,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6408,8 +6619,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6488,88 +6702,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E89" s="3">
         <v>87000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>42000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>68100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>66300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>46400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>79300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>29900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>58200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>57400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>23100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>57600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>65400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>58900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>38400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>34600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>55200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6598,88 +6818,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-45500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-35100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-27500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-18900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6758,8 +6982,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6838,88 +7065,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-429100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>37100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-17300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6948,8 +7181,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7028,8 +7262,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7108,8 +7345,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7188,8 +7428,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7268,244 +7511,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>432800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-149900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-64300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>149000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-46200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-112500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-76200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>18700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-112700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-45400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1500</v>
       </c>
       <c r="M101" s="3">
         <v>1500</v>
       </c>
       <c r="N101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E102" s="3">
         <v>26300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-44500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>44500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-90200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>138400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-78200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-44900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-71400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>48000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>31900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>32200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>9900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,367 +665,392 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>311300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>304400</v>
+      </c>
+      <c r="F8" s="3">
         <v>305300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>297500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>261500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>265000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>259800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>239900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>228500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>225000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>240400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>209500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>195600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>238500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>259000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>252600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>238500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>249300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>247400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>241600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>229300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>233600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>234000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>225400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>211000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>228100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>227800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>143900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>140200</v>
+      </c>
+      <c r="F9" s="3">
         <v>146600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>139600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>119400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>128700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>121400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>117100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>118200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>143100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>120200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>104000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>105000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>124900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>130900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>125600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>122500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>138100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>136200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>129700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>124900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>129200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>122700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>120800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>119300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>146000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>126800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>164200</v>
+      </c>
+      <c r="F10" s="3">
         <v>158700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>157900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>142100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>136300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>138400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>122800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>110300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>82000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>120200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>105500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>90600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>113600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>128100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>127000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>116000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>111200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>111200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>111900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>104400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>104400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>111300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>104600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>91700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>82100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>101000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,91 +1080,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F12" s="3">
         <v>10200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>8400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>13200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>12500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>10200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>10800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>9000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>7400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>9000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>8600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>9400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>11100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>12400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>7500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>8200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>9300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>8500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1221,123 +1254,135 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>16600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-31600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>10300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>5100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>51700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>6400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>24500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>4400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>31700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>5200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>57200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>400</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="3">
         <v>8100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>8200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>8400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>11500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>12200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>11400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>12400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>32800</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
@@ -1348,11 +1393,11 @@
       <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1387,8 +1432,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1415,174 +1466,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>257700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>269200</v>
+      </c>
+      <c r="F17" s="3">
         <v>262000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>250800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>230700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>245800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>224100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>215400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>227100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>246200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>199900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>150700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>183900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>212500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>218100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>202800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>251800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>225400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>219000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>215500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>224100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>219300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>233000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>201100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>186300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>285600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>206600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F18" s="3">
         <v>43300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>46700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>30800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>19200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>35700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>24500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-21200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>40500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>58800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>11700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>26000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>40900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>49800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-13300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>23900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>28400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>26100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>5200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>14300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>24300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>24700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-57500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>21200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1612,174 +1677,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-3100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F21" s="3">
         <v>65800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>64500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>47900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>40100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>55800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>43500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>25000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>58100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>75800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>28700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>50700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>64900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>72100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>9700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>51600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>53400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>48300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>29700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>36300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>22500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>45100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>45000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-37000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>41200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1801,14 +1880,14 @@
       <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
-        <v>3000</v>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>10</v>
+      <c r="L22" s="3">
+        <v>3000</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>10</v>
@@ -1822,11 +1901,11 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1861,174 +1940,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>32600</v>
+      </c>
+      <c r="F23" s="3">
         <v>42200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>41100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>25500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>15300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>31400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>19900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-27400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>37400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>55000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>22000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>37800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>45100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-17700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>21800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>25500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>23000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>13300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>22900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>23300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-59200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>18900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F24" s="3">
         <v>9300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>7900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>8200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-16400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>7600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-9200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>7200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>6100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-21300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>3100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>3500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2110,174 +2207,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F26" s="3">
         <v>32900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>33200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>19900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>23200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>31900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>48100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>10500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>17600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>29900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>37500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>20800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>18300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>18700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>11600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>21600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>20100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>20100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-51100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>15400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F27" s="3">
         <v>32900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>33200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>19900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>14900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>31900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>48100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>10500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>17600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>29900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>37500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>20800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>18300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>18700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>11600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>21600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>20100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>20100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-51100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>15400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,8 +2474,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2403,11 +2524,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2421,17 +2542,17 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
         <v>300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2442,8 +2563,14 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2525,8 +2652,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2608,174 +2741,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>3100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>2200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F33" s="3">
         <v>32900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>33200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>19900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>31900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>48100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>10500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>17600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>29900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>37500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>20800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>18300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>18700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>11900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>20100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>20100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-51100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>15400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2857,179 +3008,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F35" s="3">
         <v>32900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>33200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>19900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>31900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>48100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>10500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>17600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>29900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>37500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>20800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>18300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>18700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>11900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>20100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>20100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-51100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>15400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3059,8 +3228,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3090,91 +3261,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>284500</v>
+      </c>
+      <c r="F41" s="3">
         <v>224000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>241200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>214900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>259500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>236900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>192400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>173500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>192300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>189000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>279200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>275700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>137300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>126400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>112000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>190200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>169400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>154900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>199800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>192100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>180200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>251600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>203600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>171700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>139600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>129600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3256,340 +3435,370 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>179100</v>
+      </c>
+      <c r="F43" s="3">
         <v>181100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>171500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>146500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>159400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>155000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>141300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>132900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>127600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>146900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>141500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>141100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>165200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>170800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>176500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>163300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>185000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>167600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>161600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>151300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>151200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>146700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>143700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>151500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>152700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>150600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>289200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>259400</v>
+      </c>
+      <c r="F44" s="3">
         <v>255800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>254700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>277900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>293000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>305700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>322700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>326500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>322600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>299700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>305200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>294500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>270300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>254200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>244500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>222000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>194300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>168900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>163600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>175300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>160800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>158800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>168600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>173900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>176900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>188500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>46700</v>
+      </c>
+      <c r="F45" s="3">
         <v>45500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>48400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>48500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>44100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>31900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>42900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>51500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>51100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>32700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>34400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>48100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>30800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>31200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>34700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>39800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>27400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>24400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>27900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>32200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>29000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>32600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>37500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>30900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>40900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>27900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>801600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>769700</v>
+      </c>
+      <c r="F46" s="3">
         <v>706300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>715800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>687800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>756000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>729500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>699200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>684400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>693500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>668300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>760300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>759400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>603600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>582600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>567800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>615300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>576100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>515900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>552800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>551000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>521200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>589700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>553400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>528100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>510000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>496600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3671,174 +3880,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>304500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>310900</v>
+      </c>
+      <c r="F48" s="3">
         <v>313100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>307800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>288300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>258500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>238800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>223700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>214800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>217600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>240000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>240400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>243000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>305600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>322300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>264200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>276700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>344000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>351100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>344600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>315900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>332200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>330000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>320200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>322000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>323900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>336000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>734100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>742000</v>
+      </c>
+      <c r="F49" s="3">
         <v>750500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>757600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>768800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>777500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>792200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>805800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>820000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>831900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>335200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>341800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>354800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>343800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>318400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>324600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>331500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>338500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>345400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>352300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>359600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>368000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>375000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>380500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>384400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>388400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>452700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3920,8 +4147,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4003,91 +4236,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>112200</v>
+      </c>
+      <c r="F52" s="3">
         <v>108100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>83900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>75600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>67700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>70900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>72700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>75000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>76900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>74500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>75700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>76000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>14100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>14500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>33900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>36100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>16200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>15200</v>
-      </c>
-      <c r="U52" s="3">
-        <v>16000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>14600</v>
       </c>
       <c r="W52" s="3">
         <v>16000</v>
       </c>
       <c r="X52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>16900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>17000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>17000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>16400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>21200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4169,91 +4414,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1962300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1934800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1878100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1865100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1820500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1859700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1831400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1801500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1794200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1819900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1318100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1418200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1433200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1267100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1237700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1190500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1259600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1274800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1227600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1265700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1241200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1237300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1311700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1271200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1251400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1238700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1306400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4283,8 +4540,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4314,506 +4573,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>63900</v>
+      </c>
+      <c r="F57" s="3">
         <v>63800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>61500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>57900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>58400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>51200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>45000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>49100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>50300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>43000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>49100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>48500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>50700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>52300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>57400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>60800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>63400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>62600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>57900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>65400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>55300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>41500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>41800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>39400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>43000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>48800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F58" s="3">
         <v>9900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>58200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>214100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>144100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>82700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>17000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>17000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>17100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>167000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>231400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>77000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>62000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>56900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>117500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>27700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>17200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>12700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>17000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>194300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>151500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>108600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>65900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>61000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>66300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>145200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>176100</v>
+      </c>
+      <c r="F59" s="3">
         <v>153200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>142500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>115700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>169700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>160200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>160800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>162200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>186200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>134400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>122500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>128000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>147100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>142400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>125700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>115300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>144700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>131500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>118600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>111600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>135200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>131200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>104600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>100300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>107200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>101100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>251800</v>
+      </c>
+      <c r="F60" s="3">
         <v>226900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>262200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>180500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>442300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>355400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>288500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>228300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>253500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>194400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>338600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>407800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>274800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>256700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>240100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>293700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>235800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>211300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>189200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>194000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>384700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>324200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>255000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>205500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>211200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>216200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>751400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>754100</v>
+      </c>
+      <c r="F61" s="3">
         <v>756800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>759600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>763100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>559400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>633100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>698000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>767300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>690600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>292700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>297000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>296900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>305500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>309700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>314000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>318100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>322500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>326600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>331000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>330800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>59400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>118700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>178000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>237200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>253600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>270000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>110900</v>
+      </c>
+      <c r="F62" s="3">
         <v>118400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>114400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>106500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>108600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>112100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>116400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>121400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>144200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>111800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>114700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>119900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>99700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>96700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>52700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>56800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>48700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>46600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>44200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>42300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>40800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>46000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>36900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>35900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>34300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>49300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4895,8 +5192,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4978,8 +5281,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5061,91 +5370,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1097600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1116800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1102100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1136100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1050100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1110300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1102900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1117100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1088300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>598900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>750300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>824600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>680000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>663200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>606800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>668600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>606900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>584500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>564400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>567100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>484900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>488900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>469900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>478600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>499100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>535500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5175,8 +5496,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5258,8 +5581,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5341,8 +5670,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5424,8 +5759,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5507,91 +5848,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>253200</v>
+      </c>
+      <c r="F72" s="3">
         <v>223800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>204400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>222300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>202400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>192700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>169400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>154600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>158000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>169000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>137100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>89000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>78500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>69900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>85600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>99400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>161400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>140600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>194400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>189900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>266900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>323600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>330200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>310100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>289900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>341100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5673,8 +6026,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5756,8 +6115,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5839,91 +6204,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>864600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>818000</v>
+      </c>
+      <c r="F76" s="3">
         <v>776000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>729000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>770400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>749400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>730800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>698500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>677100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>731700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>719200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>667900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>608600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>587100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>574600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>583800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>591000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>667900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>643100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>701300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>674100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>752400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>822800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>801300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>772800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>739600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>770900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6005,179 +6382,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F81" s="3">
         <v>32900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>33200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>19900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>31900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>48100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>10500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>17600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>29900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>37500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>20800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>18300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>18700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>11900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>20100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>20100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-51100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>15400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6207,91 +6602,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F83" s="3">
         <v>23600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>23400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>22400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>24800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>24400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>23500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>25000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>21900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>20800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>20900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>20700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>27100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>27000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>27400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>29800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>27900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>25300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>26400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>23000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>22300</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>22200</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>21800</v>
       </c>
       <c r="AA83" s="3">
         <v>22200</v>
       </c>
       <c r="AB83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="AD83" s="3">
         <v>22300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6373,8 +6776,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6456,8 +6865,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6539,8 +6954,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6622,8 +7043,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6705,91 +7132,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>79600</v>
+      </c>
+      <c r="F89" s="3">
         <v>64400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>87000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>42000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>68100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>62400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>43500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>66300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>29200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>11800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>46400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>79300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>29900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>20600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>58200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>57400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>23100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>57600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>65400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>58900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>38400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>34600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>55200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6819,91 +7258,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-16800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-36000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-45500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-35100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-26700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-20800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-13900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-9400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-10600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-9500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-13700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-29200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-48500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-27500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-19100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-26600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-15400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-18900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6985,8 +7432,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7068,91 +7521,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-36500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-31100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-58200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-34500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-15500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-20500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-15900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-429100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-9600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>37100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-23900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-45100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>6000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-13200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-27600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-48100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-27300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-18000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-26300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-14600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-17300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7182,8 +7647,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7265,8 +7732,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7348,8 +7821,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7431,8 +7910,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7514,253 +7999,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-49700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-25700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-23400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>432800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-149900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-64300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>149000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>11400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-112500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>16100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>7000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-76200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>18700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-112700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>8300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-45400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>4600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-4900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-2600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>1600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>60500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-17200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>26300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-44500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>22600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>44500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-18800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-90200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>138400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>10900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>14400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-78200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>20900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>14500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-44900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>7700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>11900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-71400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>48000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>31900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>32200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>9900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>20600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HAE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>HAE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,405 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>318200</v>
+      </c>
+      <c r="E8" s="3">
         <v>311300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>304400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>305300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>297500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>261500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>265000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>259800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>239900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>228500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>225000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>240400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>209500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>195600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>238500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>259000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>252600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>238500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>249300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>247400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>241600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>229300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>233600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>234000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>225400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>211000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>228100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>227800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>220300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E9" s="3">
         <v>143900</v>
       </c>
-      <c r="E9" s="3">
-        <v>140200</v>
-      </c>
       <c r="F9" s="3">
+        <v>148200</v>
+      </c>
+      <c r="G9" s="3">
         <v>146600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>139600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>119400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>128700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>121400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>117100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>118200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>143100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>120200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>104000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>105000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>124900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>130900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>125600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>122500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>138100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>136200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>129700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>124900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>129200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>122700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>120800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>119300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>146000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>126800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>116000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E10" s="3">
         <v>167400</v>
       </c>
-      <c r="E10" s="3">
-        <v>164200</v>
-      </c>
       <c r="F10" s="3">
+        <v>156200</v>
+      </c>
+      <c r="G10" s="3">
         <v>158700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>157900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>142100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>136300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>138400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>122800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>110300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>82000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>120200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>105500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>90600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>113600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>128100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>127000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>116000</v>
-      </c>
-      <c r="U10" s="3">
-        <v>111200</v>
       </c>
       <c r="V10" s="3">
         <v>111200</v>
       </c>
       <c r="W10" s="3">
+        <v>111200</v>
+      </c>
+      <c r="X10" s="3">
         <v>111900</v>
-      </c>
-      <c r="X10" s="3">
-        <v>104400</v>
       </c>
       <c r="Y10" s="3">
         <v>104400</v>
       </c>
       <c r="Z10" s="3">
+        <v>104400</v>
+      </c>
+      <c r="AA10" s="3">
         <v>111300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>104600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>91700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>82100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>101000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,97 +1095,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11500</v>
+        <v>12700</v>
       </c>
       <c r="E12" s="3">
-        <v>14000</v>
+        <v>12600</v>
       </c>
       <c r="F12" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="M12" s="3">
         <v>10200</v>
       </c>
-      <c r="G12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>13200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>12500</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="O12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="P12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="S12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="U12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="V12" s="3">
+        <v>8700</v>
+      </c>
+      <c r="W12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="X12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>12400</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="AE12" s="3">
         <v>8500</v>
       </c>
-      <c r="L12" s="3">
-        <v>10200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>10800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>7000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>7000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="T12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="U12" s="3">
-        <v>8700</v>
-      </c>
-      <c r="V12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="W12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="X12" s="3">
-        <v>9400</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>11100</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>12400</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>8200</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>8500</v>
-      </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1260,132 +1277,138 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M14" s="3">
+        <v>16600</v>
+      </c>
+      <c r="N14" s="3">
+        <v>300</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
-        <v>11900</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>16600</v>
-      </c>
-      <c r="M14" s="3">
-        <v>300</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S14" s="3">
+        <v>10300</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="U14" s="3">
+        <v>51700</v>
+      </c>
+      <c r="V14" s="3">
+        <v>6400</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R14" s="3">
-        <v>10300</v>
-      </c>
-      <c r="S14" s="3">
-        <v>5100</v>
-      </c>
-      <c r="T14" s="3">
-        <v>51700</v>
-      </c>
-      <c r="U14" s="3">
-        <v>6400</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1800</v>
-      </c>
-      <c r="W14" s="3">
-        <v>2100</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>24500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>31700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-5500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>57200</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>400</v>
       </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AF14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E15" s="3">
         <v>7500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>32800</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
@@ -1399,8 +1422,8 @@
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1438,8 +1461,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1494,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>282900</v>
+      </c>
+      <c r="E17" s="3">
         <v>257700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>269200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>262000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>250800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>230700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>245800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>224100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>215400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>227100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>246200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>199900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>150700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>183900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>212500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>218100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>202800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>251800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>225400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>219000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>215500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>224100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>219300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>233000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>201100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>186300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>285600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>206600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>195500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E18" s="3">
         <v>53600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>35200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>40900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>49800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>23900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>28400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>26100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>24300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>24700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-57500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>21200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,186 +1712,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-3800</v>
       </c>
       <c r="P20" s="3">
         <v>-3800</v>
       </c>
       <c r="Q20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-1400</v>
       </c>
       <c r="AB20" s="3">
         <v>-1400</v>
       </c>
       <c r="AC20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-1700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E21" s="3">
         <v>74600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>56500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>65800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>64500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>47900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>40100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>55800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>58100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>75800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>64900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>72100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>51600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>53400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>48300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>29700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>36300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>22500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>45100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>45000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-37000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>41200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>45500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1886,11 +1926,11 @@
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3">
         <v>3000</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
@@ -1907,8 +1947,8 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1946,186 +1986,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E23" s="3">
         <v>51600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>31400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>37800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>45100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>21800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>25500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>23000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>13300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>22900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>23300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-59200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>18900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E24" s="3">
         <v>10500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>5600</v>
       </c>
       <c r="I24" s="3">
         <v>5600</v>
       </c>
       <c r="J24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K24" s="3">
         <v>8200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-16400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-21300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-8000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>3500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2262,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E26" s="3">
         <v>41000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>29900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>37500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>20800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>21600</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>20100</v>
       </c>
       <c r="AB26" s="3">
         <v>20100</v>
       </c>
       <c r="AC26" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-51100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>15400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E27" s="3">
         <v>41000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>33200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>23200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>29900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>37500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>20800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>21600</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>20100</v>
       </c>
       <c r="AB27" s="3">
         <v>20100</v>
       </c>
       <c r="AC27" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-51100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>15400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,8 +2538,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2530,8 +2591,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2548,14 +2609,14 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="3">
         <v>300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-28100</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>10</v>
@@ -2569,8 +2630,11 @@
       <c r="AE29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2722,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2814,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>3800</v>
       </c>
       <c r="P32" s="3">
         <v>3800</v>
       </c>
       <c r="Q32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>800</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>1400</v>
       </c>
       <c r="AB32" s="3">
         <v>1400</v>
       </c>
       <c r="AC32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD32" s="3">
         <v>1700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E33" s="3">
         <v>41000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>33200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>23200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>37500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-6500</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>20100</v>
       </c>
       <c r="AB33" s="3">
         <v>20100</v>
       </c>
       <c r="AC33" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-51100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>15400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3090,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E35" s="3">
         <v>41000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>23200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>37500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-6500</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>20100</v>
       </c>
       <c r="AB35" s="3">
         <v>20100</v>
       </c>
       <c r="AC35" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-51100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>15400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3315,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,97 +3349,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E41" s="3">
         <v>285700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>284500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>224000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>241200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>214900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>259500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>236900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>192400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>192300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>189000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>279200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>275700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>137300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>126400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>112000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>190200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>169400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>154900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>199800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>192100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>180200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>251600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>203600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>171700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>139600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>129600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>138900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3441,364 +3531,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E43" s="3">
         <v>177100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>179100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>181100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>171500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>146500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>159400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>155000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>141300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>132900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>127600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>146900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>141500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>141100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>165200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>170800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>176500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>163300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>185000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>167600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>161600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>151300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>151200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>146700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>143700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>151500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>152700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>150600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>151600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>285800</v>
+      </c>
+      <c r="E44" s="3">
         <v>289200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>259400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>255800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>254700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>277900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>293000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>305700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>322700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>326500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>322600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>299700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>305200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>294500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>270300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>254200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>244500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>222000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>194300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>168900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>163600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>175300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>160800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>158800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>168600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>173900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>176900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>188500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E45" s="3">
         <v>49600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>48400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>51500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>34400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>31200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>39800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>24400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>27900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>32200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>29000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>32600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>37500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>30900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>40900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>27900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>865700</v>
+      </c>
+      <c r="E46" s="3">
         <v>801600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>769700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>706300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>715800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>687800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>756000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>729500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>699200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>684400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>693500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>668300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>760300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>759400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>603600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>582600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>567800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>615300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>576100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>515900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>552800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>551000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>521200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>589700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>553400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>528100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>510000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>496600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>512400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3886,186 +3991,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>307800</v>
+      </c>
+      <c r="E48" s="3">
         <v>304500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>310900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>313100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>307800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>288300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>258500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>238800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>223700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>214800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>217600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>240000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>240400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>243000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>305600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>322300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>264200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>276700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>344000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>351100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>344600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>315900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>332200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>330000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>320200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>322000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>323900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>336000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>339800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>715900</v>
+      </c>
+      <c r="E49" s="3">
         <v>734100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>742000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>750500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>757600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>768800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>777500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>792200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>805800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>820000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>831900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>335200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>341800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>354800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>343800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>318400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>324600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>331500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>338500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>345400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>352300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>359600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>368000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>375000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>380500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>384400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>388400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>452700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>461000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4267,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,97 +4359,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E52" s="3">
         <v>122100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>112200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>108100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>83900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>67700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>70900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>72700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>74500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>75700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>33900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>36100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>14600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>16000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>16900</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>17000</v>
       </c>
       <c r="AB52" s="3">
         <v>17000</v>
       </c>
       <c r="AC52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="AD52" s="3">
         <v>16400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>21200</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4543,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2011300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1962300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1934800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1878100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1865100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1820500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1859700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1831400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1801500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1794200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1819900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1318100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1418200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1433200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1267100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1237700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1190500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1259600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1274800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1227600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1265700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1241200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1237300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1311700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1271200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1251400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1238700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1306400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1334800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4671,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,97 +4705,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E57" s="3">
         <v>78100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>61500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>50300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>50700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>52300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>57400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>60800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>63400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>62600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>57900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>65400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>55300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>41500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>41800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>39400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>43000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>48800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4673,444 +4807,459 @@
         <v>13600</v>
       </c>
       <c r="E58" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F58" s="3">
         <v>11800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>58200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>214100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>144100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>82700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>17000</v>
       </c>
       <c r="M58" s="3">
         <v>17000</v>
       </c>
       <c r="N58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O58" s="3">
         <v>17100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>167000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>231400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>77000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>62000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>56900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>117500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>27700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>12700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>17000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>194300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>151500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>108600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>65900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>61000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>66300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>51500</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E59" s="3">
         <v>145200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>176100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>153200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>142500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>115700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>169700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>160200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>162200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>186200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>134400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>122500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>128000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>147100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>142400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>125700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>115300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>144700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>131500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>118600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>111600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>135200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>131200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>104600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>100300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>107200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>101100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>105100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E60" s="3">
         <v>236900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>251800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>226900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>262200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>180500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>442300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>355400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>288500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>228300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>253500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>194400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>338600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>407800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>274800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>256700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>240100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>293700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>235800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>211300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>189200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>194000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>384700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>324200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>255000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>205500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>211200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>216200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>748700</v>
+      </c>
+      <c r="E61" s="3">
         <v>751400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>754100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>756800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>759600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>763100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>559400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>633100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>698000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>767300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>690600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>292700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>297000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>296900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>305500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>309700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>314000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>318100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>322500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>326600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>331000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>330800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>59400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>118700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>178000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>237200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>253600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>270000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>336500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E62" s="3">
         <v>109300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>110900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>118400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>114400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>106500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>108600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>112100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>116400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>121400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>144200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>111800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>114700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>119900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>99700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>96700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>52700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>56800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>48700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>46600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>44200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>42300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>40800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>46000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>36900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>35900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>34300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>49300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5347,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5439,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5531,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1117600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1097600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1116800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1102100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1136100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1050100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1110300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1102900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1117100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1088300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>598900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>750300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>824600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>680000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>663200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>606800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>668600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>606900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>584500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>564400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>567100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>484900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>488900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>469900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>478600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>499100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>535500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>585700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5659,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5749,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5841,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,8 +5933,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6025,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>308900</v>
+      </c>
+      <c r="E72" s="3">
         <v>284000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>253200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>223800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>204400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>222300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>202400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>192700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>169400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>154600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>158000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>169000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>137100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>89000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>78500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>69900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>85600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>99400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>161400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>140600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>194400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>189900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>266900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>323600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>330200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>310100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>289900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>341100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>325700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6209,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6301,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6393,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>893700</v>
+      </c>
+      <c r="E76" s="3">
         <v>864600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>818000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>776000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>729000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>770400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>749400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>730800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>698500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>677100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>731700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>719200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>667900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>608600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>587100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>574600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>583800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>591000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>667900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>643100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>701300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>674100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>752400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>822800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>801300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>772800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>739600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>770900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6577,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E81" s="3">
         <v>41000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>33200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>23200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>37500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-6500</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>20100</v>
       </c>
       <c r="AB81" s="3">
         <v>20100</v>
       </c>
       <c r="AC81" s="3">
+        <v>20100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-51100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>15400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,8 +6802,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6613,88 +6812,91 @@
         <v>23000</v>
       </c>
       <c r="E83" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F83" s="3">
         <v>23900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>20800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>20900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>27900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>26400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>23000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>22200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>22200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>22300</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6984,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7076,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7168,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7260,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,97 +7352,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E89" s="3">
         <v>19100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>79600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>64400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>87000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>42000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>68100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>66300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>29200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>46400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>79300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>29900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>20600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>58200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>57400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>23100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>57600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>65400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>58900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>38400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>34600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>55200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>39300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,97 +7480,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-48500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-27500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-26600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-15400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-13700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-15600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-18900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7662,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,97 +7754,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-429100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>37100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-13200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-48100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-27300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-26300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-15000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-14600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-17300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,8 +7882,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7738,8 +7972,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8064,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8156,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,271 +8248,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-49700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>432800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-149900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-64300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>149000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-46200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-112500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>16100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-76200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>18700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-112700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-12700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-45400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>1500</v>
       </c>
       <c r="P101" s="3">
         <v>1500</v>
       </c>
       <c r="Q101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>400</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-90200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>138400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-78200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>20900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>14500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-44900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-71400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>48000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>31900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>32200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>9900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-9200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>20600</v>
       </c>
     </row>
